--- a/Data/combined_survey_data.xlsx
+++ b/Data/combined_survey_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/james_kemper_ttu_edu/Documents/Git/TTU_ECO_gradauate_program_review/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{E2450FAE-E40D-43DC-807F-DD0355049E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC6F96F-C7E5-40F4-A30A-17FAAAB3C7F7}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{E2450FAE-E40D-43DC-807F-DD0355049E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EA0BD7-C504-4525-9EC7-BAEBB9CEB532}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{3E411F1C-1EC5-4EDA-B7DE-E6C69E6D9ABA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{3E411F1C-1EC5-4EDA-B7DE-E6C69E6D9ABA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Dashboard (old)" sheetId="9" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId2"/>
     <sheet name="combined_survey_data_for_report" sheetId="6" r:id="rId3"/>
     <sheet name="Graduate_data" sheetId="1" r:id="rId4"/>
     <sheet name="Graduate_labels" sheetId="4" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="222">
   <si>
     <t>Survey Type</t>
   </si>
@@ -715,7 +715,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -852,6 +852,32 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1200,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1225,9 +1251,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1275,60 +1326,384 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="387">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="396">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2467,67 +2842,18 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2760017767009893"/>
-          <c:y val="0"/>
-          <c:w val="0.72399822329901065"/>
-          <c:h val="1"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$5</c:f>
+              <c:f>Dashboard!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2537,85 +2863,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$B$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$6:$C$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DC2-417C-9D34-EC70DF3A9473}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Low Engagement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2631,18 +2914,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2675,11 +2962,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$B$7</c15:sqref>
+                    <c15:sqref>Dashboard!$B$6:$B$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Dashboard!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2693,49 +2980,77 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$6:$D$7</c15:sqref>
+                    <c15:sqref>Dashboard!$C$6:$C$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>Dashboard!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3DC2-417C-9D34-EC70DF3A9473}"/>
+              <c16:uniqueId val="{00000000-FC52-4D60-AA7B-E3171CC16258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$5</c:f>
+              <c:f>Dashboard!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neutral</c:v>
+                  <c:v>Low Engagement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2751,18 +3066,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2795,11 +3114,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$B$7</c15:sqref>
+                    <c15:sqref>Dashboard!$B$6:$B$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Dashboard!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2813,51 +3132,77 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$6:$E$7</c15:sqref>
+                    <c15:sqref>Dashboard!$D$6:$D$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>Dashboard!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15625</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3DC2-417C-9D34-EC70DF3A9473}"/>
+              <c16:uniqueId val="{00000001-FC52-4D60-AA7B-E3171CC16258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$5</c:f>
+              <c:f>Dashboard!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Moderately Engaged</c:v>
+                  <c:v>Neutral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2873,18 +3218,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2917,11 +3266,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$B$7</c15:sqref>
+                    <c15:sqref>Dashboard!$B$6:$B$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Dashboard!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2935,51 +3284,80 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$6:$F$7</c15:sqref>
+                    <c15:sqref>Dashboard!$E$6:$E$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>Dashboard!$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3DC2-417C-9D34-EC70DF3A9473}"/>
+              <c16:uniqueId val="{00000002-FC52-4D60-AA7B-E3171CC16258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$5</c:f>
+              <c:f>Dashboard!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Highly Engaged</c:v>
+                  <c:v>Moderately Engaged</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2995,18 +3373,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3039,11 +3421,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$B$7</c15:sqref>
+                    <c15:sqref>Dashboard!$B$6:$B$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Dashboard!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3057,11 +3439,166 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$G$6:$G$7</c15:sqref>
+                    <c15:sqref>Dashboard!$F$6:$F$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$G$7</c:f>
+              <c:f>Dashboard!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC52-4D60-AA7B-E3171CC16258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highly Engaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$6:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$G$6:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$G$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3073,11 +3610,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3DC2-417C-9D34-EC70DF3A9473}"/>
+              <c16:uniqueId val="{00000004-FC52-4D60-AA7B-E3171CC16258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3085,14 +3623,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1116534271"/>
-        <c:axId val="1116535711"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="531391568"/>
+        <c:axId val="531397328"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1116534271"/>
+        <c:axId val="531391568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3639,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1116535711"/>
+        <c:crossAx val="531397328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,17 +3647,31 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116535711"/>
+        <c:axId val="531397328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1116534271"/>
+        <c:crossAx val="531391568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3134,16 +3685,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2051282051282051E-3"/>
-          <c:y val="8.1667770592774178E-2"/>
-          <c:w val="0.27438260986607443"/>
-          <c:h val="0.83666445881445162"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3157,13 +3698,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3186,12 +3730,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3201,10 +3740,1914 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" b="0">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+        <a:defRPr sz="1100" b="0">
+          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="531391568"/>
+        <c:axId val="531397328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>#REF!</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2934-41FA-9A2C-850190CEC0E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>#REF!</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2934-41FA-9A2C-850190CEC0E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>#REF!</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2934-41FA-9A2C-850190CEC0E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>#REF!</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2934-41FA-9A2C-850190CEC0E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref/>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>#REF!</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>#REF!</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2934-41FA-9A2C-850190CEC0E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="531391568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="531397328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531397328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="531391568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" b="0">
+          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Engagement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$21:$B$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$C$21:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B2F-4098-9F3B-CB081D63DC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low Engagement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$21:$B$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$D$21:$D$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B2F-4098-9F3B-CB081D63DC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$21:$B$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$E$21:$E$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B2F-4098-9F3B-CB081D63DC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moderately Engaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$21:$B$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$F$21:$F$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B2F-4098-9F3B-CB081D63DC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highly Engaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                    <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$B$21:$B$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dashboard!$G$21:$G$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dashboard!$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B2F-4098-9F3B-CB081D63DC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="531391568"/>
+        <c:axId val="531397328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="531391568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="531397328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531397328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="531391568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" b="0">
+          <a:latin typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:ea typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+          <a:cs typeface="Microsoft GothicNeo" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3255,8 +5698,82 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3267,7 +5784,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3279,6 +5796,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3286,7 +5814,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3302,7 +5830,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3346,20 +5874,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3368,13 +5896,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3386,10 +5914,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3398,16 +5926,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3449,23 +5978,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3512,14 +6040,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3570,8 +6092,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3609,20 +6131,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3635,6 +6157,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3666,7 +6199,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3675,14 +6208,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3703,20 +6235,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3737,14 +6268,1012 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3754,26 +7283,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1400174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94852042-57DE-1EB1-327B-273AAD33EEAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB00AA8-CFC7-46BF-A56C-2A6D818B7705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3787,11 +7318,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC260A19-0DAF-4C90-85A5-551EB80861A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E28978-A605-4052-B84C-DA42909A2CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3BFD51E-3680-4701-8A75-84029BC54F49}" name="Table1" displayName="Table1" ref="B5:H7" totalsRowShown="0" headerRowDxfId="386" dataDxfId="385">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5791F0FB-C40A-4741-9DE1-829B8A23B409}" name="Table122" displayName="Table122" ref="B5:H7" totalsRowShown="0" headerRowDxfId="395" dataDxfId="394">
   <autoFilter ref="B5:H7" xr:uid="{D3BFD51E-3680-4701-8A75-84029BC54F49}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3802,23 +7409,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3F7595E2-F857-4C44-8EF9-8EF25FEEBFE7}" name="Answers" dataDxfId="384"/>
-    <tableColumn id="2" xr3:uid="{6A0D0063-97DF-4464-A986-61048C87A2A6}" name="No Engagement" dataDxfId="383">
+    <tableColumn id="1" xr3:uid="{A2C349BB-F4FE-4B78-89B6-D456D9977C70}" name="Answers" dataDxfId="393"/>
+    <tableColumn id="2" xr3:uid="{42DB282A-2064-4B6A-BA29-09C8016934CC}" name="No Engagement" dataDxfId="392">
       <calculatedColumnFormula>C5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{75485F9F-C59E-43D3-B64F-8183F3280FD7}" name="Low Engagement" dataDxfId="382">
+    <tableColumn id="3" xr3:uid="{1E8F7B4D-B2A5-4047-8939-29DC93A7DDF8}" name="Low Engagement" dataDxfId="391">
       <calculatedColumnFormula>D5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{859CA45C-B29F-43D3-81FC-CB4CB085BC86}" name="Neutral" dataDxfId="381">
+    <tableColumn id="4" xr3:uid="{05D0A5CC-3AFD-4502-802D-0F5A492C7084}" name="Neutral" dataDxfId="390">
       <calculatedColumnFormula>E5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F8C8BE32-2A56-4949-98B4-0105E7984534}" name="Moderately Engaged" dataDxfId="380">
+    <tableColumn id="5" xr3:uid="{213F9DF6-426E-43D2-8B5B-EA9825256BFE}" name="Moderately Engaged" dataDxfId="389">
       <calculatedColumnFormula>F5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{60184649-2E98-4610-8BC6-FBBD8C77BB9D}" name="Highly Engaged" dataDxfId="379">
+    <tableColumn id="6" xr3:uid="{5DB2454C-C636-4826-9179-676EAEB3C898}" name="Highly Engaged" dataDxfId="388">
       <calculatedColumnFormula>G5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9CA795ED-A040-45C4-8BB1-C408DEF89EFF}" name="Total" dataDxfId="378">
+    <tableColumn id="7" xr3:uid="{BCE566B0-B691-4277-90F4-745F913BC38F}" name="Total" dataDxfId="387">
       <calculatedColumnFormula>H5/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3827,26 +7434,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{600AD32E-A316-4F35-9F96-393BB3743DAD}" name="Table1513" displayName="Table1513" ref="B68:H70" totalsRowShown="0" headerRowDxfId="305" dataDxfId="304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{EEF666FF-70DA-47C7-95DD-ADE0BACC48B0}" name="Table151356" displayName="Table151356" ref="B68:H70" totalsRowShown="0" headerRowDxfId="314" dataDxfId="313">
   <autoFilter ref="B68:H70" xr:uid="{600AD32E-A316-4F35-9F96-393BB3743DAD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E1E1D599-05DB-482B-AF5F-E16503256F47}" name="Answers" dataDxfId="303"/>
-    <tableColumn id="2" xr3:uid="{8F127E80-3573-4546-943C-8D7892DE70A9}" name="No Engagement" dataDxfId="302">
+    <tableColumn id="1" xr3:uid="{02A2CA2A-7DFF-45F0-8FC1-7A1258F4024F}" name="Answers" dataDxfId="312"/>
+    <tableColumn id="2" xr3:uid="{21B82D0E-5D8B-4784-B938-3655FF612FAF}" name="No Engagement" dataDxfId="311">
       <calculatedColumnFormula>C68/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{36771D92-A22A-4F6B-B215-AD4C295C524F}" name="Low Engagement" dataDxfId="301">
+    <tableColumn id="3" xr3:uid="{4EC47EFE-0327-419B-8180-8EFFE02ACB7E}" name="Low Engagement" dataDxfId="310">
       <calculatedColumnFormula>D68/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{43DFBF70-FAAD-40C6-BEAA-B7B5572235A8}" name="Neutral" dataDxfId="300">
+    <tableColumn id="4" xr3:uid="{30C44F52-844B-400F-8E4B-85700A66E002}" name="Neutral" dataDxfId="309">
       <calculatedColumnFormula>E68/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{35E3668A-11E1-4C96-BAEF-6A0353B8A8A6}" name="Moderately Engaged" dataDxfId="299">
+    <tableColumn id="5" xr3:uid="{09B55435-07B7-40DD-AA16-F488FC1F89B7}" name="Moderately Engaged" dataDxfId="308">
       <calculatedColumnFormula>F68/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2D2F428B-A25B-43C8-A66B-F692BD05804F}" name="Highly Engaged" dataDxfId="298">
+    <tableColumn id="6" xr3:uid="{099F0D1B-5B01-49DD-B965-9AC589CBA14D}" name="Highly Engaged" dataDxfId="307">
       <calculatedColumnFormula>G68/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A15FB1F-F9B7-46B9-BBA3-DC5022C3D9CE}" name="Total" dataDxfId="297">
+    <tableColumn id="7" xr3:uid="{AED781BF-06C7-43C0-BF0D-85AA70B439AC}" name="Total" dataDxfId="306">
       <calculatedColumnFormula>H68/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3855,26 +7462,26 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CB030FF9-84BE-427C-BCB0-C19967BBD330}" name="Table15614" displayName="Table15614" ref="B75:H77" totalsRowShown="0" headerRowDxfId="296" dataDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{C7831778-0627-43FF-ADE7-81A02E488D13}" name="Table1561457" displayName="Table1561457" ref="B75:H77" totalsRowShown="0" headerRowDxfId="305" dataDxfId="304">
   <autoFilter ref="B75:H77" xr:uid="{CB030FF9-84BE-427C-BCB0-C19967BBD330}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{435583D9-27F0-4C38-A4E0-5B8DA0D293B5}" name="Answers" dataDxfId="294"/>
-    <tableColumn id="2" xr3:uid="{582839C1-90DD-485E-8047-C61E8B03F4C6}" name="No Engagement" dataDxfId="293">
+    <tableColumn id="1" xr3:uid="{D60AD442-D644-42C7-8FC3-1DDE8E057BBB}" name="Answers" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{66B4C18E-A43F-439D-8943-9697117E1D3B}" name="No Engagement" dataDxfId="302">
       <calculatedColumnFormula>C75/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{88E92D57-7B3F-478B-AD4E-ED3226A8E29C}" name="Low Engagement" dataDxfId="292">
+    <tableColumn id="3" xr3:uid="{5C2CD397-DAA6-4ECA-8E30-CC81EB83CB76}" name="Low Engagement" dataDxfId="301">
       <calculatedColumnFormula>D75/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BBB37DF9-7F25-445E-B190-F7A88C82E6B1}" name="Neutral" dataDxfId="291">
+    <tableColumn id="4" xr3:uid="{E1E26D63-BEB6-4625-BDA7-7131D4F9A6A9}" name="Neutral" dataDxfId="300">
       <calculatedColumnFormula>E75/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C246BA56-7C79-4BA3-9210-E9E4DFAB52F6}" name="Moderately Engaged" dataDxfId="290">
+    <tableColumn id="5" xr3:uid="{E9B0196B-FDCD-4A2E-90F9-84E6F59993ED}" name="Moderately Engaged" dataDxfId="299">
       <calculatedColumnFormula>F75/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA72E3E6-EFC5-44CB-B154-9D62AC5E2713}" name="Highly Engaged" dataDxfId="289">
+    <tableColumn id="6" xr3:uid="{98750BCC-6680-4FB1-B3CC-D2192C4C1DAB}" name="Highly Engaged" dataDxfId="298">
       <calculatedColumnFormula>G75/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2BFF0DAD-4375-4397-B3B5-DF94AEFE413A}" name="Total" dataDxfId="288">
+    <tableColumn id="7" xr3:uid="{0F0E96B8-51BB-44B5-B587-A3914F8CDC48}" name="Total" dataDxfId="297">
       <calculatedColumnFormula>H75/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3883,26 +7490,26 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3607E642-6830-4A4F-BF47-90510F59EBE7}" name="Table15616" displayName="Table15616" ref="B89:H91" totalsRowShown="0" headerRowDxfId="287" dataDxfId="286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{D0DF5CFC-27C4-406D-855B-E5699A79F863}" name="Table1561658" displayName="Table1561658" ref="B89:H91" totalsRowShown="0" headerRowDxfId="296" dataDxfId="295">
   <autoFilter ref="B89:H91" xr:uid="{3607E642-6830-4A4F-BF47-90510F59EBE7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FEB4892F-8044-4525-AD2A-CEDFCD286211}" name="Answers" dataDxfId="285"/>
-    <tableColumn id="2" xr3:uid="{AED45F37-7438-43D5-841E-1197050E4380}" name="No Engagement" dataDxfId="284">
+    <tableColumn id="1" xr3:uid="{2DED215E-F134-48A8-92C0-6EB34323886F}" name="Answers" dataDxfId="294"/>
+    <tableColumn id="2" xr3:uid="{37150A7B-4142-4BC3-B68D-8E52B07E2207}" name="No Engagement" dataDxfId="293">
       <calculatedColumnFormula>C89/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B060DF3A-66D2-40FB-B710-A7E8E0E71335}" name="Low Engagement" dataDxfId="283">
+    <tableColumn id="3" xr3:uid="{9199CD58-0FEA-4BB2-AE25-9996B165A700}" name="Low Engagement" dataDxfId="292">
       <calculatedColumnFormula>D89/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6077EF0-2238-4EB9-91FD-3D9C4C611835}" name="Neutral" dataDxfId="282">
+    <tableColumn id="4" xr3:uid="{7D8B0D33-356A-4977-B571-0DB9EB05996A}" name="Neutral" dataDxfId="291">
       <calculatedColumnFormula>E89/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2DCFC7EC-8A72-472F-9997-A02E1A79906F}" name="Moderately Engaged" dataDxfId="281">
+    <tableColumn id="5" xr3:uid="{F1B1A1D5-7F14-4CCB-A333-2C79A05EB8F3}" name="Moderately Engaged" dataDxfId="290">
       <calculatedColumnFormula>F89/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9711949D-DE6A-4B8E-942D-AED0BE5C18C6}" name="Highly Engaged" dataDxfId="280">
+    <tableColumn id="6" xr3:uid="{AEF4663B-78F8-4477-9275-88A33B15AA9B}" name="Highly Engaged" dataDxfId="289">
       <calculatedColumnFormula>G89/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2654E4C6-3010-472B-AF10-E9A05FE9B9D1}" name="Total" dataDxfId="279">
+    <tableColumn id="7" xr3:uid="{5C56DB43-A0E7-4637-849F-2385C33739A4}" name="Total" dataDxfId="288">
       <calculatedColumnFormula>H89/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3911,26 +7518,26 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CE0762BC-A219-4884-B4ED-9247E836AA59}" name="Table1517" displayName="Table1517" ref="B96:H98" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{C3F6F752-C682-4D54-9DA9-EA494EBFB4C2}" name="Table151759" displayName="Table151759" ref="B96:H98" totalsRowShown="0" headerRowDxfId="287" dataDxfId="286">
   <autoFilter ref="B96:H98" xr:uid="{CE0762BC-A219-4884-B4ED-9247E836AA59}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A427C79-AD34-4FE8-9211-C2FC035DDEBD}" name="Answers" dataDxfId="276"/>
-    <tableColumn id="2" xr3:uid="{00830129-59DE-498B-B4A0-86AD5CAB6B58}" name="No Engagement" dataDxfId="275">
+    <tableColumn id="1" xr3:uid="{B5C8923E-47D1-4F40-99E3-61D9A52707AF}" name="Answers" dataDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{D87AA96A-FDB4-4EEC-B4B0-A2045F502207}" name="No Engagement" dataDxfId="284">
       <calculatedColumnFormula>C96/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3B719390-E389-446F-A755-59662C979B67}" name="Low Engagement" dataDxfId="274">
+    <tableColumn id="3" xr3:uid="{EAE542CA-3BB0-4ED4-B99C-48D3FF5BBF43}" name="Low Engagement" dataDxfId="283">
       <calculatedColumnFormula>D96/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{651EAF66-F97D-4044-87D6-6B6A2046B758}" name="Neutral" dataDxfId="273">
+    <tableColumn id="4" xr3:uid="{FDFEA6C2-9A5D-4785-BC1C-9032ADBBDC0C}" name="Neutral" dataDxfId="282">
       <calculatedColumnFormula>E96/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{067F3B67-B7C0-4AB6-824A-73A38E71AFEE}" name="Moderately Engaged" dataDxfId="272">
+    <tableColumn id="5" xr3:uid="{5180E4D4-C1F4-4A8C-B825-A3DAA9EC6FEB}" name="Moderately Engaged" dataDxfId="281">
       <calculatedColumnFormula>F96/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40E9ECEE-9D58-4B3B-B830-638B5AF40C61}" name="Highly Engaged" dataDxfId="271">
+    <tableColumn id="6" xr3:uid="{835BC25B-1586-48D8-A129-C63AABB9B8B6}" name="Highly Engaged" dataDxfId="280">
       <calculatedColumnFormula>G96/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91FAD073-9DA6-435E-B490-D3AB38DA43B4}" name="Total" dataDxfId="270">
+    <tableColumn id="7" xr3:uid="{69D21A45-B26E-44C2-AEBB-2AABFACAA539}" name="Total" dataDxfId="279">
       <calculatedColumnFormula>H96/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3939,26 +7546,26 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{56F36A43-184E-4C63-BFCE-F02FA97F39F7}" name="Table15618" displayName="Table15618" ref="B103:H105" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{995ADA90-B2F5-4704-B03D-98B7FDD91880}" name="Table1561860" displayName="Table1561860" ref="B103:H105" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277">
   <autoFilter ref="B103:H105" xr:uid="{56F36A43-184E-4C63-BFCE-F02FA97F39F7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7BCEAF31-0015-44BA-B67F-CFC4C2CFA4F0}" name="Answers" dataDxfId="267"/>
-    <tableColumn id="2" xr3:uid="{B29F8060-A485-4E77-9116-1D781EB36C8D}" name="No Engagement" dataDxfId="266">
+    <tableColumn id="1" xr3:uid="{8923C7CF-3934-4C7B-AA58-EEEF3D8174D5}" name="Answers" dataDxfId="276"/>
+    <tableColumn id="2" xr3:uid="{714D9233-A759-47DF-BBDC-B67CA230C812}" name="No Engagement" dataDxfId="275">
       <calculatedColumnFormula>C103/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D08C4330-8CEC-4375-A001-DD7921F1E494}" name="Low Engagement" dataDxfId="265">
+    <tableColumn id="3" xr3:uid="{2DC0160E-8F78-4913-A30E-C5BD6F35B101}" name="Low Engagement" dataDxfId="274">
       <calculatedColumnFormula>D103/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F480A297-4BC7-4079-A8F3-DC77A066FCE1}" name="Neutral" dataDxfId="264">
+    <tableColumn id="4" xr3:uid="{F3A2514C-0D61-4068-BC7B-2CAF1EC3C590}" name="Neutral" dataDxfId="273">
       <calculatedColumnFormula>E103/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0387F8EB-D9ED-4BBA-AA0A-CD2F18B7FF32}" name="Moderately Engaged" dataDxfId="263">
+    <tableColumn id="5" xr3:uid="{4BE09C49-8885-4507-8345-AFA889B7B85D}" name="Moderately Engaged" dataDxfId="272">
       <calculatedColumnFormula>F103/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D28120D9-AEC3-4B8E-A279-78CD51BABBC1}" name="Highly Engaged" dataDxfId="262">
+    <tableColumn id="6" xr3:uid="{6D7E1CD5-765F-4766-8A2D-BB114842A962}" name="Highly Engaged" dataDxfId="271">
       <calculatedColumnFormula>G103/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91A58BE7-7D52-4DEB-9246-A1844DCFEEEB}" name="Total" dataDxfId="261">
+    <tableColumn id="7" xr3:uid="{A085BBD0-A0B3-488E-9FC3-8D412D5A7715}" name="Total" dataDxfId="270">
       <calculatedColumnFormula>H103/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3967,26 +7574,26 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3D51B83-4ABC-499E-9615-A5ED03CED4D9}" name="Table1519" displayName="Table1519" ref="B110:H112" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{C5B4EB92-6A58-4991-A296-76F5E3281FA1}" name="Table151961" displayName="Table151961" ref="B110:H112" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268">
   <autoFilter ref="B110:H112" xr:uid="{A3D51B83-4ABC-499E-9615-A5ED03CED4D9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{87373F64-6393-44BE-B76C-BEF7F81473E3}" name="Answers" dataDxfId="258"/>
-    <tableColumn id="2" xr3:uid="{97C48D85-254E-45CB-858D-EBF765EFBC4F}" name="No Engagement" dataDxfId="257">
+    <tableColumn id="1" xr3:uid="{9193003B-30F6-4723-B94F-FE5CB01B4FC4}" name="Answers" dataDxfId="267"/>
+    <tableColumn id="2" xr3:uid="{129382D1-EDE5-4C03-87FD-44676A7B8735}" name="No Engagement" dataDxfId="266">
       <calculatedColumnFormula>C110/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2635C36B-D598-4DF4-830D-B6CBF3616250}" name="Low Engagement" dataDxfId="256">
+    <tableColumn id="3" xr3:uid="{2D96C10C-844E-4C59-AEF6-C6F9AC7CC42A}" name="Low Engagement" dataDxfId="265">
       <calculatedColumnFormula>D110/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7BC6BBF9-F5D7-4F67-88B7-BA3C5972F3C0}" name="Neutral" dataDxfId="255">
+    <tableColumn id="4" xr3:uid="{A96F3AD0-758F-41F7-A7FC-99DB81EBEFEB}" name="Neutral" dataDxfId="264">
       <calculatedColumnFormula>E110/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5B66F9FD-39BF-4F95-B860-8288D16DF6F2}" name="Moderately Engaged" dataDxfId="254">
+    <tableColumn id="5" xr3:uid="{6B369F1E-374E-44DA-B3CD-ADAFF8B95475}" name="Moderately Engaged" dataDxfId="263">
       <calculatedColumnFormula>F110/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5F3EFC50-4C81-498B-AD45-D3BCB363E463}" name="Highly Engaged" dataDxfId="253">
+    <tableColumn id="6" xr3:uid="{B02D60C0-1AE0-4474-A0F0-C71E73625D59}" name="Highly Engaged" dataDxfId="262">
       <calculatedColumnFormula>G110/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9F573D3A-A93E-4E97-8487-D785323E7730}" name="Total" dataDxfId="252">
+    <tableColumn id="7" xr3:uid="{E77107C4-0737-4164-A3DB-1004624F1B1C}" name="Total" dataDxfId="261">
       <calculatedColumnFormula>H110/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3995,26 +7602,26 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{431CFCC3-194F-4E6E-96B3-5F63D462F1A9}" name="Table15620" displayName="Table15620" ref="B117:H119" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{89B93E16-F8A3-451C-8F01-CC5C753C889A}" name="Table1562062" displayName="Table1562062" ref="B117:H119" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259">
   <autoFilter ref="B117:H119" xr:uid="{431CFCC3-194F-4E6E-96B3-5F63D462F1A9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{263DC210-DB79-4701-877A-47C6BEB5D903}" name="Answers" dataDxfId="249"/>
-    <tableColumn id="2" xr3:uid="{4FFD39F8-8DE0-4C13-95F7-D9F03349EB29}" name="No Engagement" dataDxfId="248">
+    <tableColumn id="1" xr3:uid="{1F7A3FBD-B46D-4804-9C93-8F7A0F8D3A85}" name="Answers" dataDxfId="258"/>
+    <tableColumn id="2" xr3:uid="{E10667D4-586A-4851-9B87-B8D9ECA5544E}" name="No Engagement" dataDxfId="257">
       <calculatedColumnFormula>C117/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E843DC6-C975-4410-8C5D-5B4E02CBB27E}" name="Low Engagement" dataDxfId="247">
+    <tableColumn id="3" xr3:uid="{8FC2F22A-96D9-4B58-A60F-C3989625A3CB}" name="Low Engagement" dataDxfId="256">
       <calculatedColumnFormula>D117/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01ACF1B0-6A68-496A-A3FC-85548B5C863C}" name="Neutral" dataDxfId="246">
+    <tableColumn id="4" xr3:uid="{6B6E6A65-E970-4B66-8D56-2D75E991779A}" name="Neutral" dataDxfId="255">
       <calculatedColumnFormula>E117/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DCE83B47-71F5-47D7-B695-86EBD2B4401A}" name="Moderately Engaged" dataDxfId="245">
+    <tableColumn id="5" xr3:uid="{45A9C5F1-312C-4D0B-AADB-062F544E0D44}" name="Moderately Engaged" dataDxfId="254">
       <calculatedColumnFormula>F117/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6C916F9D-F8FF-483C-8F6C-983C60ABFAA8}" name="Highly Engaged" dataDxfId="244">
+    <tableColumn id="6" xr3:uid="{EC2901B1-E8A7-41F9-B20C-5E360FD4C0A5}" name="Highly Engaged" dataDxfId="253">
       <calculatedColumnFormula>G117/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9454E1CE-8603-4268-AD96-BF1B929637B2}" name="Total" dataDxfId="243">
+    <tableColumn id="7" xr3:uid="{05558628-0243-4899-AA1B-41D816A92AC5}" name="Total" dataDxfId="252">
       <calculatedColumnFormula>H117/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4023,26 +7630,26 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0B95C01C-04FD-4931-A948-744881CA5AA9}" name="Table151923" displayName="Table151923" ref="B124:H126" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{6998940A-B110-4D67-A1C2-9500279E23F1}" name="Table15192363" displayName="Table15192363" ref="B124:H126" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250">
   <autoFilter ref="B124:H126" xr:uid="{0B95C01C-04FD-4931-A948-744881CA5AA9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A0DE3C09-AD99-4BF6-BDED-8F758BE216AA}" name="Answers" dataDxfId="240"/>
-    <tableColumn id="2" xr3:uid="{B95373E8-2693-466D-8EDB-A64649858769}" name="No Engagement" dataDxfId="239">
+    <tableColumn id="1" xr3:uid="{6821D330-2097-4A83-87FD-D713DDD06588}" name="Answers" dataDxfId="249"/>
+    <tableColumn id="2" xr3:uid="{6D904E8E-BD89-46A3-8517-81696246A727}" name="No Engagement" dataDxfId="248">
       <calculatedColumnFormula>C124/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91F957F3-B2D3-4DCF-83BB-D36693C4DCAE}" name="Low Engagement" dataDxfId="238">
+    <tableColumn id="3" xr3:uid="{5EA48998-097B-4863-BAD5-6B935F7C3B32}" name="Low Engagement" dataDxfId="247">
       <calculatedColumnFormula>D124/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{53B873E6-EE54-4C6C-9C5E-8661A1B219E9}" name="Neutral" dataDxfId="237">
+    <tableColumn id="4" xr3:uid="{7FEFB48F-E08D-4A34-A15B-04E353DDB9C8}" name="Neutral" dataDxfId="246">
       <calculatedColumnFormula>E124/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AAB2E267-E8FC-4618-B286-A5570736C8F2}" name="Moderately Engaged" dataDxfId="236">
+    <tableColumn id="5" xr3:uid="{27329778-0F08-48B4-AF70-E53AF3EF93BA}" name="Moderately Engaged" dataDxfId="245">
       <calculatedColumnFormula>F124/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{601E35EB-A885-4BEA-BB6F-A8497A0EA815}" name="Highly Engaged" dataDxfId="235">
+    <tableColumn id="6" xr3:uid="{531CAE9E-DF51-4956-8815-0C10AD56003C}" name="Highly Engaged" dataDxfId="244">
       <calculatedColumnFormula>G124/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5AEF09E0-E377-4164-86EC-E1A9C8169AF3}" name="Total" dataDxfId="234">
+    <tableColumn id="7" xr3:uid="{D1D79FEA-671C-45E6-9DAC-44D732284A5D}" name="Total" dataDxfId="243">
       <calculatedColumnFormula>H124/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4051,26 +7658,26 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A54F271F-B972-4864-99C8-355D425BA288}" name="Table1562024" displayName="Table1562024" ref="B131:H133" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{A4402CCE-CB2A-4B3A-B8B9-8314F193A5ED}" name="Table156202464" displayName="Table156202464" ref="B131:H133" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241">
   <autoFilter ref="B131:H133" xr:uid="{A54F271F-B972-4864-99C8-355D425BA288}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{329F65A1-37D7-4B37-BDA2-9589A79D6C5D}" name="Answers" dataDxfId="231"/>
-    <tableColumn id="2" xr3:uid="{26360298-9109-4929-B3D0-CF6AA95E6C20}" name="No Engagement" dataDxfId="230">
+    <tableColumn id="1" xr3:uid="{AE2EC5D3-A17C-43E8-A3AD-75BF7BEF1AAD}" name="Answers" dataDxfId="240"/>
+    <tableColumn id="2" xr3:uid="{F3D7B23A-C200-4F10-A6B6-B1E3A2BCE475}" name="No Engagement" dataDxfId="239">
       <calculatedColumnFormula>C131/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9E59E194-E0CD-4195-B8F0-61EFC3B74859}" name="Low Engagement" dataDxfId="229">
+    <tableColumn id="3" xr3:uid="{DD8768FD-1312-48F9-98E5-C54D231E3926}" name="Low Engagement" dataDxfId="238">
       <calculatedColumnFormula>D131/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A1B120E8-D83D-4AB8-AD89-39E7A3865F98}" name="Neutral" dataDxfId="228">
+    <tableColumn id="4" xr3:uid="{0DB87FC5-B85C-48BE-B991-FB047DB4B8B2}" name="Neutral" dataDxfId="237">
       <calculatedColumnFormula>E131/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1B07DA5-C848-4447-B993-6CB0D513BE20}" name="Moderately Engaged" dataDxfId="227">
+    <tableColumn id="5" xr3:uid="{B7208A4B-6EBC-4583-B1C4-E464756A1F4F}" name="Moderately Engaged" dataDxfId="236">
       <calculatedColumnFormula>F131/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2C0DA005-815A-40D8-93F9-B33B4A861142}" name="Highly Engaged" dataDxfId="226">
+    <tableColumn id="6" xr3:uid="{8BD0256D-1C79-4120-AC5A-8B2154DEC4EA}" name="Highly Engaged" dataDxfId="235">
       <calculatedColumnFormula>G131/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A6B76A6B-4E87-48DF-A298-80EC97D21DB4}" name="Total" dataDxfId="225">
+    <tableColumn id="7" xr3:uid="{9F23241F-0DFF-4636-B7EE-27257F70F623}" name="Total" dataDxfId="234">
       <calculatedColumnFormula>H131/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4079,26 +7686,26 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D16213E7-016D-4904-BDA6-900836D31F71}" name="Table151925" displayName="Table151925" ref="B138:H140" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="64" xr:uid="{C47AEB68-EDD5-446D-B3E7-A35B82E1185D}" name="Table15192565" displayName="Table15192565" ref="B138:H140" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232">
   <autoFilter ref="B138:H140" xr:uid="{D16213E7-016D-4904-BDA6-900836D31F71}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2A25F495-E531-4B7F-BD74-9463C87E8594}" name="Answers" dataDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{5F8D18BD-62D7-4804-AE2F-3A3235B759DC}" name="No Engagement" dataDxfId="221">
+    <tableColumn id="1" xr3:uid="{698973D9-8E0A-468E-A571-BD77A3BF0467}" name="Answers" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{09740CE6-1137-48FC-9AE0-19CEDA1CB711}" name="No Engagement" dataDxfId="230">
       <calculatedColumnFormula>C138/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{804CC5DA-5BDE-4151-B026-1D069020A6CE}" name="Low Engagement" dataDxfId="220">
+    <tableColumn id="3" xr3:uid="{BB35EAE4-4BC6-4E68-88C0-C053926090C8}" name="Low Engagement" dataDxfId="229">
       <calculatedColumnFormula>D138/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B8E32B69-0730-458E-BCB0-72892CD738CE}" name="Neutral" dataDxfId="219">
+    <tableColumn id="4" xr3:uid="{0BE71175-78AC-4B0E-B98A-A5A9F7835116}" name="Neutral" dataDxfId="228">
       <calculatedColumnFormula>E138/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C58F4BF3-1DEF-44B4-B883-756ECF9340BE}" name="Moderately Engaged" dataDxfId="218">
+    <tableColumn id="5" xr3:uid="{228F86D2-A258-40A1-9499-4615033D7EDA}" name="Moderately Engaged" dataDxfId="227">
       <calculatedColumnFormula>F138/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{200A4E4E-174F-4234-A0FC-9BBD26DCBAA1}" name="Highly Engaged" dataDxfId="217">
+    <tableColumn id="6" xr3:uid="{178C9805-0403-4A57-80FA-7C2CCBDFC059}" name="Highly Engaged" dataDxfId="226">
       <calculatedColumnFormula>G138/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D52A80F0-95BA-4793-8345-FDBE589E9B1A}" name="Total" dataDxfId="216">
+    <tableColumn id="7" xr3:uid="{CB7C0EB1-7CFC-4C95-A2FC-6DA49720E11C}" name="Total" dataDxfId="225">
       <calculatedColumnFormula>H138/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4107,7 +7714,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A233B3A-C781-4101-8139-67BD997E0731}" name="Table15" displayName="Table15" ref="B12:H14" totalsRowShown="0" headerRowDxfId="377" dataDxfId="376">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{CB0B40AA-69F2-420C-9712-104E00E6B062}" name="Table1546" displayName="Table1546" ref="B12:H14" totalsRowShown="0" headerRowDxfId="386" dataDxfId="385">
   <autoFilter ref="B12:H14" xr:uid="{5A233B3A-C781-4101-8139-67BD997E0731}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4118,23 +7725,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3032E071-298B-429C-B5CB-C983B825C7AB}" name="Answers" dataDxfId="375"/>
-    <tableColumn id="2" xr3:uid="{2C3FE891-55B7-4992-8A60-A1930382BEA9}" name="No Engagement" dataDxfId="374">
+    <tableColumn id="1" xr3:uid="{2F101836-3BAB-41E4-8026-5A9EF991E090}" name="Answers" dataDxfId="384"/>
+    <tableColumn id="2" xr3:uid="{2DDD487B-99A8-4B29-BEA1-2294A400A0F3}" name="No Engagement" dataDxfId="383">
       <calculatedColumnFormula>C12/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE1FD21A-6F72-4006-8A14-8FACD3723DF4}" name="Low Engagement" dataDxfId="373">
+    <tableColumn id="3" xr3:uid="{92D3BB90-DC63-44DC-AC1D-0D2BD9F21ED8}" name="Low Engagement" dataDxfId="382">
       <calculatedColumnFormula>D12/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4FC83BF9-7CA5-4D81-AA7E-E5E510B8FD4A}" name="Neutral" dataDxfId="372">
+    <tableColumn id="4" xr3:uid="{EFAE3F29-4185-4FE6-A5D9-561332CDF0AB}" name="Neutral" dataDxfId="381">
       <calculatedColumnFormula>E12/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2D5C0267-713F-4277-ADFA-36804D1D5E6A}" name="Moderately Engaged" dataDxfId="371">
+    <tableColumn id="5" xr3:uid="{80F06A3A-6B86-4691-97BC-F17B150F0B64}" name="Moderately Engaged" dataDxfId="380">
       <calculatedColumnFormula>F12/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ECE99B53-846D-46F7-8C9C-F0AC79D3BF09}" name="Highly Engaged" dataDxfId="370">
+    <tableColumn id="6" xr3:uid="{4006E426-24B2-4A5A-AB3F-FDCBC851FB6E}" name="Highly Engaged" dataDxfId="379">
       <calculatedColumnFormula>G12/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{533F0579-62C1-4701-AC22-2671D309C4F1}" name="Total" dataDxfId="369">
+    <tableColumn id="7" xr3:uid="{C7771F94-5E99-49E4-ADE9-B6BCA589DA59}" name="Total" dataDxfId="378">
       <calculatedColumnFormula>H12/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4143,26 +7750,26 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{AD13F538-30F8-4602-9D7A-FF4A1A215DC7}" name="Table1562026" displayName="Table1562026" ref="B145:H147" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{33E54BDB-7E43-4862-BBEE-CEC5B9E869DF}" name="Table156202666" displayName="Table156202666" ref="B145:H147" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
   <autoFilter ref="B145:H147" xr:uid="{AD13F538-30F8-4602-9D7A-FF4A1A215DC7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E51797CE-58D5-444C-80B1-AEC56056AA8F}" name="Answers" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{010554D9-BCE5-46C0-B272-2DEFD5BC2224}" name="No Engagement" dataDxfId="212">
+    <tableColumn id="1" xr3:uid="{4C7336A8-F204-4CC3-A090-EA924432B67B}" name="Answers" dataDxfId="222"/>
+    <tableColumn id="2" xr3:uid="{D80B1BEF-DAA5-472F-B909-775D2DA58E75}" name="No Engagement" dataDxfId="221">
       <calculatedColumnFormula>C145/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{85A3499E-F9C6-42ED-AFBB-2DCF6AECD7EE}" name="Low Engagement" dataDxfId="211">
+    <tableColumn id="3" xr3:uid="{5C4C6C12-7C8A-4073-ADB7-86795C53897A}" name="Low Engagement" dataDxfId="220">
       <calculatedColumnFormula>D145/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A4DB6283-3CD2-4DFC-9F58-A14993E4EEDB}" name="Neutral" dataDxfId="210">
+    <tableColumn id="4" xr3:uid="{D3D3D7DB-AC16-482F-992C-1879B1771A81}" name="Neutral" dataDxfId="219">
       <calculatedColumnFormula>E145/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F2F1C8A2-422E-4A5D-A926-BC70913F8867}" name="Moderately Engaged" dataDxfId="209">
+    <tableColumn id="5" xr3:uid="{6D8415A3-DBB8-437B-BFD1-00DA105E8BBD}" name="Moderately Engaged" dataDxfId="218">
       <calculatedColumnFormula>F145/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AA5363E0-088B-4552-9872-9ABADAC3D847}" name="Highly Engaged" dataDxfId="208">
+    <tableColumn id="6" xr3:uid="{AF4F885A-F862-494D-9148-6DF7C32B2196}" name="Highly Engaged" dataDxfId="217">
       <calculatedColumnFormula>G145/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C7F90238-730F-406B-8D2F-F7996D8E7C79}" name="Total" dataDxfId="207">
+    <tableColumn id="7" xr3:uid="{0CF652C1-2746-40F5-85C2-B84B87FA0D51}" name="Total" dataDxfId="216">
       <calculatedColumnFormula>H145/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4171,7 +7778,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{75D915E9-5DDE-4693-A81A-DEE4B8475B90}" name="Table151927" displayName="Table151927" ref="B152:H154" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{3D4D2DD0-D656-475C-AADC-1C404DBE17B5}" name="Table15192767" displayName="Table15192767" ref="B152:H154" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
   <autoFilter ref="B152:H154" xr:uid="{75D915E9-5DDE-4693-A81A-DEE4B8475B90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4182,23 +7789,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D84D1A5D-DE8D-4097-A9EC-F3FFF0354157}" name="Answers" dataDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{2757D163-B0A0-4052-B7AF-2047B4BA99C2}" name="No Engagement" dataDxfId="203">
+    <tableColumn id="1" xr3:uid="{AD3B113E-6225-4F78-B18B-FADFD3C7491F}" name="Answers" dataDxfId="213"/>
+    <tableColumn id="2" xr3:uid="{5B648EC2-EDD8-4993-BF97-128EB0575FC8}" name="No Engagement" dataDxfId="212">
       <calculatedColumnFormula>C152/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CF6CAEA7-EE6B-4F73-A7C0-6155C500245E}" name="Low Engagement" dataDxfId="202">
+    <tableColumn id="3" xr3:uid="{0FF03478-8920-46B7-A7B7-DD6056C69436}" name="Low Engagement" dataDxfId="211">
       <calculatedColumnFormula>D152/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{234D69A0-F4A4-45DB-A4C3-DD0BDBFB77F1}" name="Neutral" dataDxfId="201">
+    <tableColumn id="4" xr3:uid="{53F67CEE-C28D-45D2-B0FB-C308FAB0A7C0}" name="Neutral" dataDxfId="210">
       <calculatedColumnFormula>E152/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A75A3BEC-6B0F-4871-90AE-555C2E8E1A67}" name="Moderately Engaged" dataDxfId="200">
+    <tableColumn id="5" xr3:uid="{B6EE10E3-760B-4FD8-BE03-FC0635E2A65E}" name="Moderately Engaged" dataDxfId="209">
       <calculatedColumnFormula>F152/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DE811524-BF02-43FA-93FB-8F57CFFC1A3B}" name="Highly Engaged" dataDxfId="199">
+    <tableColumn id="6" xr3:uid="{B04AD156-0FB5-4141-B5B2-388F187F5E85}" name="Highly Engaged" dataDxfId="208">
       <calculatedColumnFormula>G152/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09E254A3-0054-4C38-AD4D-8E3CE40E8395}" name="Total" dataDxfId="198">
+    <tableColumn id="7" xr3:uid="{F5F206F5-1B68-47F3-957E-B75E546FB2C1}" name="Total" dataDxfId="207">
       <calculatedColumnFormula>H152/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4207,7 +7814,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{CD97D1D3-37A6-4342-87BC-CBB69AD87C0C}" name="Table1562028" displayName="Table1562028" ref="B159:H161" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="67" xr:uid="{1BF8503F-2EDB-47CE-8032-E84C639FCF6A}" name="Table156202868" displayName="Table156202868" ref="B159:H161" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
   <autoFilter ref="B159:H161" xr:uid="{CD97D1D3-37A6-4342-87BC-CBB69AD87C0C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4218,23 +7825,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1C293048-C630-4B8D-9083-BD85928F71CD}" name="Answers" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{D75D582D-8A4D-443B-9645-1CC25F167CC3}" name="No Engagement" dataDxfId="194">
+    <tableColumn id="1" xr3:uid="{54FF5D8B-1C1E-434A-B76D-5BF96EE1DE7E}" name="Answers" dataDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{A3A6E362-CED6-4866-9B14-7CB5DA30809A}" name="No Engagement" dataDxfId="203">
       <calculatedColumnFormula>C159/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C556DA40-C82D-4BF7-82AE-82D49251C34A}" name="Low Engagement" dataDxfId="193">
+    <tableColumn id="3" xr3:uid="{AD5483D5-891E-427D-998B-90D8D4C5EFE0}" name="Low Engagement" dataDxfId="202">
       <calculatedColumnFormula>D159/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D491286A-B056-47ED-A2A9-C7ADFCA3CA9D}" name="Neutral" dataDxfId="192">
+    <tableColumn id="4" xr3:uid="{B5A1FA2F-3286-48CC-B120-970CF44A5271}" name="Neutral" dataDxfId="201">
       <calculatedColumnFormula>E159/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F2C68BA6-430C-473F-ACEC-5FADB34D4900}" name="Moderately Engaged" dataDxfId="191">
+    <tableColumn id="5" xr3:uid="{E9EA0C17-68D2-45FD-BC01-7AD887A99615}" name="Moderately Engaged" dataDxfId="200">
       <calculatedColumnFormula>F159/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{686C0953-A801-4F30-9DC6-9B4ABA6B571F}" name="Highly Engaged" dataDxfId="190">
+    <tableColumn id="6" xr3:uid="{B3C6A796-E98E-4384-95B0-9763D2D4290A}" name="Highly Engaged" dataDxfId="199">
       <calculatedColumnFormula>G159/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E39B5BA3-2CC4-434E-8B65-A997AA8C4193}" name="Total" dataDxfId="189">
+    <tableColumn id="7" xr3:uid="{D054AAFF-CCA9-40CD-85A6-BC3239B0CE2A}" name="Total" dataDxfId="198">
       <calculatedColumnFormula>H159/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4243,7 +7850,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{5AEE286C-951E-42DD-901D-F021FA5B33FB}" name="Table151929" displayName="Table151929" ref="B166:H168" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{9A82B14C-4306-4DC7-93D2-3CB70906CFA2}" name="Table15192969" displayName="Table15192969" ref="B166:H168" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <autoFilter ref="B166:H168" xr:uid="{5AEE286C-951E-42DD-901D-F021FA5B33FB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4254,23 +7861,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{66D4C951-7ED3-4505-9A6C-DE4D11EE030E}" name="Answers" dataDxfId="186"/>
-    <tableColumn id="2" xr3:uid="{4D57D6F4-DB92-4A04-9D52-31BE04FD9ACB}" name="No Engagement" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{81543946-2BC8-47FC-BF45-ECE4E1799B63}" name="Answers" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{D313F40C-B1B6-4C76-9137-46BC6CEB6ACB}" name="No Engagement" dataDxfId="194">
       <calculatedColumnFormula>C166/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D339AC66-1A5B-406A-BCB6-2431677D9841}" name="Low Engagement" dataDxfId="184">
+    <tableColumn id="3" xr3:uid="{A8A8ACA1-F342-475B-886D-EFC62ACBF18F}" name="Low Engagement" dataDxfId="193">
       <calculatedColumnFormula>D166/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BEF5CB6A-F029-4A3C-8DF3-2E6B0622DB05}" name="Neutral" dataDxfId="183">
+    <tableColumn id="4" xr3:uid="{8D226AE8-77B5-4785-8A73-D485D69BCD77}" name="Neutral" dataDxfId="192">
       <calculatedColumnFormula>E166/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5427418A-ED16-4D02-9F47-029E237899A2}" name="Moderately Engaged" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{6080DC62-8AFD-4D75-8998-9C8F55831526}" name="Moderately Engaged" dataDxfId="191">
       <calculatedColumnFormula>F166/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A38EABDE-F15F-43CA-9D15-FA2D086B58BC}" name="Highly Engaged" dataDxfId="181">
+    <tableColumn id="6" xr3:uid="{85044A97-9DFF-4E6D-A864-A0B949BFE160}" name="Highly Engaged" dataDxfId="190">
       <calculatedColumnFormula>G166/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B62FC430-133E-49CD-9C29-587808A1CA01}" name="Total" dataDxfId="180">
+    <tableColumn id="7" xr3:uid="{FA5073EE-571E-45B3-8DC9-41D6C214C161}" name="Total" dataDxfId="189">
       <calculatedColumnFormula>H166/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4279,7 +7886,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{49087E38-2F4F-4EA3-A733-B1340A648021}" name="Table1562030" displayName="Table1562030" ref="B173:H175" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="69" xr:uid="{6227F4FA-B1AB-4108-8B96-1E8CDD253A0B}" name="Table156203070" displayName="Table156203070" ref="B173:H175" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
   <autoFilter ref="B173:H175" xr:uid="{49087E38-2F4F-4EA3-A733-B1340A648021}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4290,23 +7897,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FC871C34-C64E-4AFD-A210-980A8E1E16B1}" name="Answers" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{498E2D72-6387-45D9-ADC8-0EBF79DEBCBF}" name="No Engagement" dataDxfId="176">
+    <tableColumn id="1" xr3:uid="{96F92772-BD15-416A-B8A9-402B3115D3B3}" name="Answers" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{054B4580-06D6-4E9C-AB82-7B37B0DCDDDB}" name="No Engagement" dataDxfId="185">
       <calculatedColumnFormula>C173/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F15796BB-2C28-4D09-A0E1-63307576F331}" name="Low Engagement" dataDxfId="175">
+    <tableColumn id="3" xr3:uid="{DCEAFC63-D7F1-46CD-840A-BBF717336818}" name="Low Engagement" dataDxfId="184">
       <calculatedColumnFormula>D173/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{649BBCFD-E28F-4A0A-A749-B74603A71F32}" name="Neutral" dataDxfId="174">
+    <tableColumn id="4" xr3:uid="{3429EB3F-1D13-49DD-B11C-40E3DA38A86E}" name="Neutral" dataDxfId="183">
       <calculatedColumnFormula>E173/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{398168F4-8443-4D92-9E32-941BFAE782B0}" name="Moderately Engaged" dataDxfId="173">
+    <tableColumn id="5" xr3:uid="{2BA55E9C-04FC-44BA-929B-347717886612}" name="Moderately Engaged" dataDxfId="182">
       <calculatedColumnFormula>F173/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{002F04CE-8C63-48A8-8BA3-57873A8E5F0B}" name="Highly Engaged" dataDxfId="172">
+    <tableColumn id="6" xr3:uid="{96A99449-A0D4-4B78-A05E-1236353640ED}" name="Highly Engaged" dataDxfId="181">
       <calculatedColumnFormula>G173/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C906B133-D7C8-4EF5-96CB-E02BA7F94A8E}" name="Total" dataDxfId="171">
+    <tableColumn id="7" xr3:uid="{34FAE617-DB23-427E-855B-F3537F9B7869}" name="Total" dataDxfId="180">
       <calculatedColumnFormula>H173/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4315,7 +7922,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{7C9F3148-08B6-42F4-8DC5-63E3CB9F2A28}" name="Table151931" displayName="Table151931" ref="B182:H184" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{38E30082-06BC-43C2-AFB4-08B5FD48A80B}" name="Table15193171" displayName="Table15193171" ref="B182:H184" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="B182:H184" xr:uid="{7C9F3148-08B6-42F4-8DC5-63E3CB9F2A28}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4326,23 +7933,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6BA1542E-15A2-40CB-9FC2-837B261E36C6}" name="Answers" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{E731F769-EAEC-4B2F-BC3D-9D879B2B7842}" name="No Engagement" dataDxfId="167">
+    <tableColumn id="1" xr3:uid="{82D48FCD-86DF-45D0-B4F9-36E1C7D42D07}" name="Answers" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{27983732-E880-4F28-BE12-39D67A4555F5}" name="No Engagement" dataDxfId="176">
       <calculatedColumnFormula>C182/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A2C54D6C-FAAA-439E-A6F1-40A424980302}" name="Low Engagement" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{ABA77B98-A9FE-471B-BE79-34565AC1FA2F}" name="Low Engagement" dataDxfId="175">
       <calculatedColumnFormula>D182/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7B0AE94F-29FC-4D43-A2DB-17C8AFBDACCC}" name="Neutral" dataDxfId="165">
+    <tableColumn id="4" xr3:uid="{51A00421-F008-4840-8387-655490492CE4}" name="Neutral" dataDxfId="174">
       <calculatedColumnFormula>E182/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A03885CC-C2D2-4170-9E89-3E7E19F84CED}" name="Moderately Engaged" dataDxfId="164">
+    <tableColumn id="5" xr3:uid="{D07AE49B-4D06-4FFE-86D8-476F5C286C28}" name="Moderately Engaged" dataDxfId="173">
       <calculatedColumnFormula>F182/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BB085BBD-AABC-4ED9-A333-42E0D00FAA1D}" name="Highly Engaged" dataDxfId="163">
+    <tableColumn id="6" xr3:uid="{768B1C51-D6D8-4579-949B-C2CA1D502DBE}" name="Highly Engaged" dataDxfId="172">
       <calculatedColumnFormula>G182/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D42EF754-A229-4E7F-8616-C6459981ED9F}" name="Total" dataDxfId="162">
+    <tableColumn id="7" xr3:uid="{AF858755-2A4A-4D70-83AE-858D631EBA6C}" name="Total" dataDxfId="171">
       <calculatedColumnFormula>H182/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4351,7 +7958,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{96032369-05C5-4AAC-9751-351D7507448A}" name="Table1562032" displayName="Table1562032" ref="B189:H191" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="71" xr:uid="{4803DA2C-C46B-4A26-A065-AACC29A6B771}" name="Table156203272" displayName="Table156203272" ref="B189:H191" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
   <autoFilter ref="B189:H191" xr:uid="{96032369-05C5-4AAC-9751-351D7507448A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4362,23 +7969,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A34C1AA1-919C-45F0-952E-752911B2608E}" name="Answers" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{8A9F05FE-B55A-4AA6-A699-1F44A3000C11}" name="No Engagement" dataDxfId="158">
+    <tableColumn id="1" xr3:uid="{28EC48A0-199B-4A61-B090-358983A6C1AA}" name="Answers" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{8E1609AF-5441-4B8B-9B9C-01DE6524344C}" name="No Engagement" dataDxfId="167">
       <calculatedColumnFormula>C189/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CCB40EA5-B369-4A06-AADB-75A86C07E1A9}" name="Low Engagement" dataDxfId="157">
+    <tableColumn id="3" xr3:uid="{9EE62104-7D3A-49D9-9C49-BF3BB5F6A868}" name="Low Engagement" dataDxfId="166">
       <calculatedColumnFormula>D189/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E3CB68C6-1E88-425F-8971-66B665E61F4A}" name="Neutral" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{30077C04-43A8-4485-8195-B4D297D0C115}" name="Neutral" dataDxfId="165">
       <calculatedColumnFormula>E189/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{58F5627A-27B1-4E1C-9CA9-F2F85C8D8A53}" name="Moderately Engaged" dataDxfId="155">
+    <tableColumn id="5" xr3:uid="{F369A837-8D7B-47DB-9B9B-D18ACAC1ED01}" name="Moderately Engaged" dataDxfId="164">
       <calculatedColumnFormula>F189/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{07AED21D-7ABA-45F1-BBB3-D0A6FB4D04EB}" name="Highly Engaged" dataDxfId="154">
+    <tableColumn id="6" xr3:uid="{6E5C8059-ED5A-4A83-8D54-30F0D3BD50C2}" name="Highly Engaged" dataDxfId="163">
       <calculatedColumnFormula>G189/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{88B0988B-C7A1-4CF3-8565-B86A31DF30EA}" name="Total" dataDxfId="153">
+    <tableColumn id="7" xr3:uid="{40667680-0FCE-4002-8129-274ECE363615}" name="Total" dataDxfId="162">
       <calculatedColumnFormula>H189/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4387,7 +7994,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8F8BF980-2C29-493A-9AA7-803D0DF8CBF6}" name="Table151933" displayName="Table151933" ref="B196:H198" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{6E759BF7-5CE5-491E-85E6-08F4AB6DC62D}" name="Table15193373" displayName="Table15193373" ref="B196:H198" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="B196:H198" xr:uid="{8F8BF980-2C29-493A-9AA7-803D0DF8CBF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4398,23 +8005,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CDC2C99-24EE-4750-AC83-F636313B211C}" name="Answers" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{FEE0427B-1D6E-4AF6-8D27-CBE47616B3E9}" name="No Engagement" dataDxfId="149">
+    <tableColumn id="1" xr3:uid="{6833BEB8-2C77-40ED-97BB-1F424664A571}" name="Answers" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{6672A137-8DC1-45F8-9A3F-04B2D8CAB442}" name="No Engagement" dataDxfId="158">
       <calculatedColumnFormula>C196/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{96E98071-7042-4FBB-8338-C8A40A63BD1B}" name="Low Engagement" dataDxfId="148">
+    <tableColumn id="3" xr3:uid="{E95D9964-772C-4BDC-A3EE-515C8CF5BE54}" name="Low Engagement" dataDxfId="157">
       <calculatedColumnFormula>D196/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8CF4EFAA-AD18-401A-A84D-162C1FA39624}" name="Neutral" dataDxfId="147">
+    <tableColumn id="4" xr3:uid="{8A77D433-10A1-4CF4-B29C-54B44BFB31DF}" name="Neutral" dataDxfId="156">
       <calculatedColumnFormula>E196/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AA40834E-D77F-4127-8B6D-1C9C4DC521E4}" name="Moderately Engaged" dataDxfId="146">
+    <tableColumn id="5" xr3:uid="{0A2AA74F-C470-47F4-AE20-0487913A21BB}" name="Moderately Engaged" dataDxfId="155">
       <calculatedColumnFormula>F196/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A501BA43-3C68-4BEF-9C60-102F6884A05D}" name="Highly Engaged" dataDxfId="145">
+    <tableColumn id="6" xr3:uid="{29F55F87-647F-44A1-8F2E-9E96D70C8B50}" name="Highly Engaged" dataDxfId="154">
       <calculatedColumnFormula>G196/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CEC5187E-AE83-4335-8940-F6DFA733EFC3}" name="Total" dataDxfId="144">
+    <tableColumn id="7" xr3:uid="{DB89CE3B-CA22-4989-9422-E0DC3FA08C11}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>H196/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4423,7 +8030,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{EB816914-F17B-42CE-A599-320C1565EE88}" name="Table1562034" displayName="Table1562034" ref="B203:H205" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{412C5091-8418-46EF-BC54-A3A57BDEC5CB}" name="Table156203474" displayName="Table156203474" ref="B203:H205" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="B203:H205" xr:uid="{EB816914-F17B-42CE-A599-320C1565EE88}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4434,23 +8041,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F98E76FA-592C-4035-ADA5-C955CE4C8089}" name="Answers" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{20AF3F3D-1BFB-417C-8287-F10DB16C7557}" name="No Engagement" dataDxfId="140">
+    <tableColumn id="1" xr3:uid="{C3E40BDF-1915-4AC7-91AE-25FAEDF0F3FD}" name="Answers" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{14A0E04E-BA06-4FFD-AE21-B09D47E29FB7}" name="No Engagement" dataDxfId="149">
       <calculatedColumnFormula>C203/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D3C7D3E6-55BE-4B10-AD56-E772CE0F943A}" name="Low Engagement" dataDxfId="139">
+    <tableColumn id="3" xr3:uid="{67D025AC-04C9-4762-BD98-20C467A2BC78}" name="Low Engagement" dataDxfId="148">
       <calculatedColumnFormula>D203/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E95263F9-F71B-4F28-ABB8-1C29A404F6A8}" name="Neutral" dataDxfId="138">
+    <tableColumn id="4" xr3:uid="{28119C3D-6909-4AFF-B35B-05C9D117BDDC}" name="Neutral" dataDxfId="147">
       <calculatedColumnFormula>E203/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{87042EE5-5DCF-417B-B06A-A05D210446DB}" name="Moderately Engaged" dataDxfId="137">
+    <tableColumn id="5" xr3:uid="{0A46F07D-5B0A-4A5A-B59F-428251AC71BE}" name="Moderately Engaged" dataDxfId="146">
       <calculatedColumnFormula>F203/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4987A25E-044E-40E8-BC0B-0B6C2458AEB0}" name="Highly Engaged" dataDxfId="136">
+    <tableColumn id="6" xr3:uid="{0D2FA03D-6156-4299-834F-513B02AE6406}" name="Highly Engaged" dataDxfId="145">
       <calculatedColumnFormula>G203/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4065D192-A441-49BB-B04B-8BA5E11D9E8C}" name="Total" dataDxfId="135">
+    <tableColumn id="7" xr3:uid="{7986AB31-72AD-4EC7-946C-5DE5FB7C4B06}" name="Total" dataDxfId="144">
       <calculatedColumnFormula>H203/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4459,7 +8066,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{5D01A759-BF38-491B-B910-979837793724}" name="Table151935" displayName="Table151935" ref="B210:H212" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{FB8095DD-A9B9-454D-B34C-0B1B7A2309F3}" name="Table15193575" displayName="Table15193575" ref="B210:H212" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="B210:H212" xr:uid="{5D01A759-BF38-491B-B910-979837793724}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4470,23 +8077,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A917A922-5B75-40AB-853D-0C90C9FD545B}" name="Answers" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{505211E3-3212-4573-96D1-E1037A6B9D3A}" name="No Engagement" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{61B0C0C3-7B70-43A8-9466-C9DC5E144FBB}" name="Answers" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{2DCAF559-1419-41B3-8E3F-1ED312E2A153}" name="No Engagement" dataDxfId="140">
       <calculatedColumnFormula>C210/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6C905DFF-23AF-4286-944D-D82EDA989EC6}" name="Low Engagement" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{77493B28-47D7-4B79-90B8-9A9ACBF96327}" name="Low Engagement" dataDxfId="139">
       <calculatedColumnFormula>D210/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{691663C0-EA8E-4898-B36B-3FE37B5C0270}" name="Neutral" dataDxfId="129">
+    <tableColumn id="4" xr3:uid="{578DC260-9978-4E28-A8F7-BFA957647B1C}" name="Neutral" dataDxfId="138">
       <calculatedColumnFormula>E210/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE6876-3E36-41F9-82FA-5C866AC373AB}" name="Moderately Engaged" dataDxfId="128">
+    <tableColumn id="5" xr3:uid="{18065138-2A22-44AA-B642-E2627BA25162}" name="Moderately Engaged" dataDxfId="137">
       <calculatedColumnFormula>F210/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E60B9790-05BF-45E0-95DE-B1AEC5945690}" name="Highly Engaged" dataDxfId="127">
+    <tableColumn id="6" xr3:uid="{D92DB698-F6D1-4E7E-B338-06D9C84DE02E}" name="Highly Engaged" dataDxfId="136">
       <calculatedColumnFormula>G210/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E13BF8D-2081-4592-830C-8771B567BADC}" name="Total" dataDxfId="126">
+    <tableColumn id="7" xr3:uid="{DB4AFBD7-3B92-4D9E-A351-37A46325594A}" name="Total" dataDxfId="135">
       <calculatedColumnFormula>H210/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4495,7 +8102,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C57CE19-1186-48A1-A0B9-E418F2E6B267}" name="Table156" displayName="Table156" ref="B19:H21" totalsRowShown="0" headerRowDxfId="368" dataDxfId="367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{ECCB5B77-D5C9-42EF-8A8F-12DF741011B8}" name="Table15649" displayName="Table15649" ref="B19:H21" totalsRowShown="0" headerRowDxfId="377" dataDxfId="376">
   <autoFilter ref="B19:H21" xr:uid="{5C57CE19-1186-48A1-A0B9-E418F2E6B267}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4506,23 +8113,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3353420E-AD0B-4DE6-AB9B-E47D6D51156E}" name="Answers" dataDxfId="366"/>
-    <tableColumn id="2" xr3:uid="{2E258921-EC21-475B-91D3-102B5D640160}" name="No Engagement" dataDxfId="365">
+    <tableColumn id="1" xr3:uid="{D6507026-F78F-4C2F-9C65-423549FF9A10}" name="Answers" dataDxfId="375"/>
+    <tableColumn id="2" xr3:uid="{CC1E5DFF-AB9C-49C6-9D53-BF9764909037}" name="No Engagement" dataDxfId="374">
       <calculatedColumnFormula>C19/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5969F4E4-48DE-4FA2-8077-CB3AC1717D6E}" name="Low Engagement" dataDxfId="364">
+    <tableColumn id="3" xr3:uid="{73974F44-3200-4DD3-BCED-C70A4899A3DE}" name="Low Engagement" dataDxfId="373">
       <calculatedColumnFormula>D19/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8D6EC446-69F7-4264-AEC5-E6F738BF9156}" name="Neutral" dataDxfId="363">
+    <tableColumn id="4" xr3:uid="{1D06D815-CAF7-40B3-959E-0B38D99587E5}" name="Neutral" dataDxfId="372">
       <calculatedColumnFormula>E19/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{56E088DD-2831-42D4-BC78-531CC6D2C11E}" name="Moderately Engaged" dataDxfId="362">
+    <tableColumn id="5" xr3:uid="{989EDCFA-39B1-4599-9F97-D00A9B2EA176}" name="Moderately Engaged" dataDxfId="371">
       <calculatedColumnFormula>F19/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{92F26C12-3983-4F7D-985D-AE69501ECC33}" name="Highly Engaged" dataDxfId="361">
+    <tableColumn id="6" xr3:uid="{B8BB3217-AFFC-49DC-807D-6F1C4585B8E6}" name="Highly Engaged" dataDxfId="370">
       <calculatedColumnFormula>G19/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9E0DEF1B-B6EA-4CF6-987D-8729E4A17C25}" name="Total" dataDxfId="360">
+    <tableColumn id="7" xr3:uid="{21FC38CB-6550-44DD-A87C-17C9ECE97C8E}" name="Total" dataDxfId="369">
       <calculatedColumnFormula>H19/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4531,7 +8138,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{0237A2A0-99F5-47A4-ADAA-0D4C6FC54AED}" name="Table1562036" displayName="Table1562036" ref="B217:H219" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{14A50A88-941B-4D55-A42F-7DDBF7B3F773}" name="Table156203676" displayName="Table156203676" ref="B217:H219" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <autoFilter ref="B217:H219" xr:uid="{0237A2A0-99F5-47A4-ADAA-0D4C6FC54AED}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4542,23 +8149,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE260627-091B-4937-AD81-171533A5A17D}" name="Answers" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{1ADF854C-C82E-4A1E-AC41-3C0662103365}" name="No Engagement" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{BA1AB41E-5587-4D8D-B3F6-A9079FBF22D9}" name="Answers" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{181556EE-14EA-4C66-B708-7A173EC70A05}" name="No Engagement" dataDxfId="131">
       <calculatedColumnFormula>C217/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BC8E1D0B-362E-4811-AFBF-74B846099E48}" name="Low Engagement" dataDxfId="121">
+    <tableColumn id="3" xr3:uid="{A6A633BD-4439-4B19-98B3-F70C23599B64}" name="Low Engagement" dataDxfId="130">
       <calculatedColumnFormula>D217/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{51376D9D-A2DE-4823-9BB7-51BDF4F4697C}" name="Neutral" dataDxfId="120">
+    <tableColumn id="4" xr3:uid="{7C47481B-D414-4AE3-840B-88C377215956}" name="Neutral" dataDxfId="129">
       <calculatedColumnFormula>E217/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E35B218A-2EFE-437E-9B41-F0D08A6FBF77}" name="Moderately Engaged" dataDxfId="119">
+    <tableColumn id="5" xr3:uid="{38E6A60D-B2F0-4FAE-9CF8-98CA76130C52}" name="Moderately Engaged" dataDxfId="128">
       <calculatedColumnFormula>F217/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{93CADFB6-3D9F-4C81-BBE7-1AA9674AC603}" name="Highly Engaged" dataDxfId="118">
+    <tableColumn id="6" xr3:uid="{D2A37DE8-87D3-449B-805F-E7D6B48A9470}" name="Highly Engaged" dataDxfId="127">
       <calculatedColumnFormula>G217/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EBBB863D-0CE6-4FC4-A6A8-3CAD299E822B}" name="Total" dataDxfId="117">
+    <tableColumn id="7" xr3:uid="{7579751D-5EDD-4928-93AC-53A4D2158617}" name="Total" dataDxfId="126">
       <calculatedColumnFormula>H217/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4567,7 +8174,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{F62EE2DE-577E-4AC6-AA9A-96879FCB7665}" name="Table151937" displayName="Table151937" ref="B224:H226" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{6A368B3E-9333-429D-8387-7B0D7768C788}" name="Table15193777" displayName="Table15193777" ref="B224:H226" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="B224:H226" xr:uid="{F62EE2DE-577E-4AC6-AA9A-96879FCB7665}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4578,23 +8185,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AFD59B6A-58FB-4F38-9B19-FC322FEDBA0E}" name="Answers" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{C0D11A3C-53B5-42C5-959D-90E18F5BF80B}" name="No Engagement" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{3CD992A8-E1D9-4F2F-A3C2-ECB3034EE93C}" name="Answers" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{F11240CF-9536-40CB-9128-7A12605A454B}" name="No Engagement" dataDxfId="122">
       <calculatedColumnFormula>C224/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{37051492-3ADD-4B2A-8DC4-13D9C1B09972}" name="Low Engagement" dataDxfId="112">
+    <tableColumn id="3" xr3:uid="{8EB1047C-1AD5-46E5-B2EC-2B92F713E87C}" name="Low Engagement" dataDxfId="121">
       <calculatedColumnFormula>D224/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AB2271E2-7D52-44AD-B85B-1DFE9657D404}" name="Neutral" dataDxfId="111">
+    <tableColumn id="4" xr3:uid="{AB4AE9AB-2A82-42BD-B281-AC68AAE355B1}" name="Neutral" dataDxfId="120">
       <calculatedColumnFormula>E224/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D498D78B-99D0-4345-8FA1-780F311A3031}" name="Moderately Engaged" dataDxfId="110">
+    <tableColumn id="5" xr3:uid="{309BFFED-335C-4252-B2DD-CAEA862E8C09}" name="Moderately Engaged" dataDxfId="119">
       <calculatedColumnFormula>F224/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1AEA6A8B-924C-4A8F-8D48-5E90BA0F8A01}" name="Highly Engaged" dataDxfId="109">
+    <tableColumn id="6" xr3:uid="{83E9E334-7B76-4BC8-9009-4E8D5C88B92C}" name="Highly Engaged" dataDxfId="118">
       <calculatedColumnFormula>G224/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1952160F-5EFD-47C7-A2F6-6FC5FB7106B2}" name="Total" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{A9E67EA0-7C25-42BA-AC3D-77381BAD2006}" name="Total" dataDxfId="117">
       <calculatedColumnFormula>H224/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4603,7 +8210,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{9EDCB6DF-9182-447D-934A-4A42D5BB8601}" name="Table1562038" displayName="Table1562038" ref="B231:H233" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{6F6C5702-6228-4267-B8B3-392133E24B8A}" name="Table156203878" displayName="Table156203878" ref="B231:H233" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="B231:H233" xr:uid="{9EDCB6DF-9182-447D-934A-4A42D5BB8601}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4614,23 +8221,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{17EAF2A0-C070-4CA5-B61F-9021FAB8843C}" name="Answers" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{985E8725-EA30-4ED4-A73C-4336427EBD74}" name="No Engagement" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{F087CDB7-D7DD-4CE1-823B-CBA8976E18B1}" name="Answers" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{DBB2C0D6-8FD1-42E2-A686-77826A95901C}" name="No Engagement" dataDxfId="113">
       <calculatedColumnFormula>C231/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A88CA30C-7866-4117-BA42-3B15F653DA63}" name="Low Engagement" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{2531EB05-3F9A-4B4C-B039-D49879753A4D}" name="Low Engagement" dataDxfId="112">
       <calculatedColumnFormula>D231/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A64BC567-28A6-41F7-862F-0D8F454D81AC}" name="Neutral" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{42A7A501-D15B-4643-ABC0-58970879CD41}" name="Neutral" dataDxfId="111">
       <calculatedColumnFormula>E231/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0104E5F0-61D3-4169-A9B2-7675ADB4B14B}" name="Moderately Engaged" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{8E510630-9417-444F-8254-A11AB1B4A9F7}" name="Moderately Engaged" dataDxfId="110">
       <calculatedColumnFormula>F231/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FDC899E1-4507-4041-BBEC-786BC58307E5}" name="Highly Engaged" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{9D449B9D-581C-4743-9A75-61F2E2760A3B}" name="Highly Engaged" dataDxfId="109">
       <calculatedColumnFormula>G231/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18BC09C6-AB85-4080-A788-7D336C79AACC}" name="Total" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{D2397648-1AFC-4CBD-B3E9-07B0694A3AEA}" name="Total" dataDxfId="108">
       <calculatedColumnFormula>H231/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4639,7 +8246,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{FBE9EBCF-0F11-4E03-9992-B6936B5680C3}" name="Table151939" displayName="Table151939" ref="B238:H240" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{65FB2D0F-DB74-4EA2-A0FC-B46CB0BA7284}" name="Table15193979" displayName="Table15193979" ref="B238:H240" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B238:H240" xr:uid="{FBE9EBCF-0F11-4E03-9992-B6936B5680C3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4650,23 +8257,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4E1A2ABB-2980-4B1B-95AC-AAB8AC11402B}" name="Answers" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{A942D69A-3E45-48FC-A357-BEA9C0B15EF5}" name="No Engagement" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{476F44CA-B0C7-40BF-8706-2AD2E65D03BF}" name="Answers" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{48664594-E310-43EA-9B61-F8DDD30BDBCD}" name="No Engagement" dataDxfId="104">
       <calculatedColumnFormula>C238/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A9605435-02BA-4E03-85C7-4ACF955AE75D}" name="Low Engagement" dataDxfId="94">
+    <tableColumn id="3" xr3:uid="{A32A220C-4B44-476D-84D5-43445E81D27B}" name="Low Engagement" dataDxfId="103">
       <calculatedColumnFormula>D238/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02917813-90FA-4C3B-AADA-4730EF3032DD}" name="Neutral" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{2FFC6B52-7389-4E4E-BB8A-E96F5E8C73AE}" name="Neutral" dataDxfId="102">
       <calculatedColumnFormula>E238/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4EF5BB1E-E1CF-40BD-A1B3-52D4A0D3D023}" name="Moderately Engaged" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{69B51B00-F54E-468F-A2E9-CA685E4D683A}" name="Moderately Engaged" dataDxfId="101">
       <calculatedColumnFormula>F238/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E308A372-EA0D-4BAC-BA8B-AD1EE6649396}" name="Highly Engaged" dataDxfId="91">
+    <tableColumn id="6" xr3:uid="{4CACFC8F-BB2D-444E-9A5A-E8225057FEB8}" name="Highly Engaged" dataDxfId="100">
       <calculatedColumnFormula>G238/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4FB8D422-EE45-4C18-90D3-DEFD3401E963}" name="Total" dataDxfId="90">
+    <tableColumn id="7" xr3:uid="{87A28EB6-EB10-4550-834D-3E5E34D6C749}" name="Total" dataDxfId="99">
       <calculatedColumnFormula>H238/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4675,7 +8282,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{7A8BABEA-220D-4605-AD5D-C70FF88D3A74}" name="Table1562040" displayName="Table1562040" ref="B245:H247" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{F3976181-4691-4D37-9982-2110BAD316A7}" name="Table156204080" displayName="Table156204080" ref="B245:H247" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="B245:H247" xr:uid="{7A8BABEA-220D-4605-AD5D-C70FF88D3A74}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4686,23 +8293,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0BD3BB03-6881-45A8-9E72-EF399688DCCB}" name="Answers" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00984308-8FE3-4700-B026-55D86177133F}" name="No Engagement" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{446A3D14-A15F-4682-A1D2-9C80810B8D2D}" name="Answers" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{D1B11756-C805-410E-98FE-B0F1B801FE37}" name="No Engagement" dataDxfId="95">
       <calculatedColumnFormula>C245/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6D9B6491-7247-423D-862C-ED76367CE5F1}" name="Low Engagement" dataDxfId="85">
+    <tableColumn id="3" xr3:uid="{070050EA-8CF8-4C70-BD96-AFE704BE4087}" name="Low Engagement" dataDxfId="94">
       <calculatedColumnFormula>D245/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{48F44DB6-4147-47B7-A916-2152233CEEEF}" name="Neutral" dataDxfId="84">
+    <tableColumn id="4" xr3:uid="{EEE17C39-700C-4CFF-A3C9-C077D36E6E5F}" name="Neutral" dataDxfId="93">
       <calculatedColumnFormula>E245/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{46BF7675-507E-490D-B39D-9AE93BBDB83B}" name="Moderately Engaged" dataDxfId="83">
+    <tableColumn id="5" xr3:uid="{EC72D7D3-49BD-4E93-BD5E-BEC78025B085}" name="Moderately Engaged" dataDxfId="92">
       <calculatedColumnFormula>F245/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{49221556-CEB8-42AC-8050-365AA8D5FDFD}" name="Highly Engaged" dataDxfId="82">
+    <tableColumn id="6" xr3:uid="{35E3A81F-4C8E-48F5-8C75-DC114CD8438E}" name="Highly Engaged" dataDxfId="91">
       <calculatedColumnFormula>G245/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{029A049B-41CB-4604-A684-788EB1B94F96}" name="Total" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{2FF26F31-AEB7-483E-A254-FA3EBB40F592}" name="Total" dataDxfId="90">
       <calculatedColumnFormula>H245/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4711,7 +8318,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{8E7A10FB-4A9E-44B0-912D-A820AD2F23E3}" name="Table156204041" displayName="Table156204041" ref="B252:H254" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{DF117C24-F3C5-42C6-A22D-0B5E9E65E06E}" name="Table15620404181" displayName="Table15620404181" ref="B252:H254" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="B252:H254" xr:uid="{8E7A10FB-4A9E-44B0-912D-A820AD2F23E3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4722,23 +8329,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{083057FE-5F22-4123-8E74-68D7D3FD9383}" name="Answers" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{5A60C5BA-27BC-41D0-AA69-BFF5E947BD77}" name="No Engagement" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{548B6E24-DE8C-4C2E-A522-7569386582A0}" name="Answers" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{BB71A1FE-4BA4-4583-AF12-06D49F38FCB5}" name="No Engagement" dataDxfId="86">
       <calculatedColumnFormula>C252/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6B36FB7F-758C-4865-AFFE-ACCD7A9555CA}" name="Low Engagement" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{6F670AB1-739E-4CC2-8132-6CFF5BE8C37D}" name="Low Engagement" dataDxfId="85">
       <calculatedColumnFormula>D252/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1708A41F-47B1-4B3A-B046-B9A038C319CF}" name="Neutral" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{222A7F92-393D-4C23-B420-BB1E1569485A}" name="Neutral" dataDxfId="84">
       <calculatedColumnFormula>E252/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{17D8015D-06C4-49D1-B305-67F85152B3D6}" name="Moderately Engaged" dataDxfId="74">
+    <tableColumn id="5" xr3:uid="{88BB69CE-3127-4C25-83C3-59D08516EBDA}" name="Moderately Engaged" dataDxfId="83">
       <calculatedColumnFormula>F252/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A8AB1802-1CAB-4D3C-8E33-3CEB54331932}" name="Highly Engaged" dataDxfId="73">
+    <tableColumn id="6" xr3:uid="{9E5538C1-0F1A-417B-90EA-02503101DBC7}" name="Highly Engaged" dataDxfId="82">
       <calculatedColumnFormula>G252/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B48541-8E5A-4697-BFD9-B3EA6EB5216C}" name="Total" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{AE455B1E-FDE1-4B92-AAC2-2D2B537100E6}" name="Total" dataDxfId="81">
       <calculatedColumnFormula>H252/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4747,26 +8354,26 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{6AA32214-0119-4043-A858-43B40077D9C8}" name="Table1561442" displayName="Table1561442" ref="B82:H84" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{7AB261CD-1496-4A84-B24C-06620E4B4F6C}" name="Table156144282" displayName="Table156144282" ref="B82:H84" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="B82:H84" xr:uid="{6AA32214-0119-4043-A858-43B40077D9C8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0AC1109-70DE-40EE-A766-B02B89E68EEC}" name="Answers" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{70EA089A-43C5-41DF-BDEC-60FC7935B5B3}" name="No Engagement" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{4D6AC30A-C26C-4DAF-9EDD-391DE50BC7D4}" name="Answers" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{8F887888-A922-4A92-AA60-593333E25C8D}" name="No Engagement" dataDxfId="77">
       <calculatedColumnFormula>C82/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E6EC958-F4D6-4BD8-AB46-868E5C40DF92}" name="Low Engagement" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9995BB9C-3D23-450A-8BC1-892AEB6A404A}" name="Low Engagement" dataDxfId="76">
       <calculatedColumnFormula>D82/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CBAED0A-6AA0-439E-9C36-6394F107E16F}" name="Neutral" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{74F05A36-F8DD-4080-8257-AF87FDDED20B}" name="Neutral" dataDxfId="75">
       <calculatedColumnFormula>E82/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EED03998-2D51-440D-A1F0-DEAB7959182B}" name="Moderately Engaged" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{81436E9D-1A28-4B72-9F67-139F049C9914}" name="Moderately Engaged" dataDxfId="74">
       <calculatedColumnFormula>F82/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F4A036AA-544D-4AE3-AD8B-A1E27F15BE1C}" name="Highly Engaged" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{0158CC91-490A-4D0D-8861-20D38E29352E}" name="Highly Engaged" dataDxfId="73">
       <calculatedColumnFormula>G82/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{25E831F5-5B9C-446F-A25F-425EB162258A}" name="Total" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{4CC93B7B-81DC-4F51-8AD4-D6785E0200F0}" name="Total" dataDxfId="72">
       <calculatedColumnFormula>H82/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4775,7 +8382,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{33A56CA7-FBCF-4F4E-A1D1-88CED357F8A2}" name="Table15620404143" displayName="Table15620404143" ref="B259:H261" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{B4EBC2FF-F8C7-4ACF-8A7C-CE8CD25E21C7}" name="Table1562040414383" displayName="Table1562040414383" ref="B259:H261" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B259:H261" xr:uid="{33A56CA7-FBCF-4F4E-A1D1-88CED357F8A2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4786,23 +8393,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2225370F-2525-4CE0-983B-A244B12D57B2}" name="Answers" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{84F74444-F948-4372-B26A-2AA4F333F1CC}" name="No Engagement" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{B75C204F-77D9-4D25-B725-032E3E4B8949}" name="Answers" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{BD341A62-C233-4E5F-A026-68D9FE1E096A}" name="No Engagement" dataDxfId="68">
       <calculatedColumnFormula>C259/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C4E97F80-DB94-422B-93DD-B9A512B2171E}" name="Low Engagement" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{6052AD17-62C3-442D-BD9F-5EADC43F6FD5}" name="Low Engagement" dataDxfId="67">
       <calculatedColumnFormula>D259/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{03AF4142-8BCB-429A-B7B2-0EACED9FE2F4}" name="Neutral" dataDxfId="57">
+    <tableColumn id="4" xr3:uid="{C1BED298-1FD6-40D4-9D4E-B24CCFFDE4AF}" name="Neutral" dataDxfId="66">
       <calculatedColumnFormula>E259/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{158AB370-DE0C-409D-994E-3821BC3A05B7}" name="Moderately Engaged" dataDxfId="56">
+    <tableColumn id="5" xr3:uid="{FA919749-B14E-4E3C-9BDD-1CC7D315DB64}" name="Moderately Engaged" dataDxfId="65">
       <calculatedColumnFormula>F259/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A3EDCF70-6153-4776-BC6D-4AE1E5813842}" name="Highly Engaged" dataDxfId="55">
+    <tableColumn id="6" xr3:uid="{8703E2D1-47C1-4C04-AA44-A94DE027DD55}" name="Highly Engaged" dataDxfId="64">
       <calculatedColumnFormula>G259/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5A128EA1-DF5A-41AF-946B-019AA8EAD9FD}" name="Total" dataDxfId="54">
+    <tableColumn id="7" xr3:uid="{50709C4A-2332-4468-85A8-EDE8C6E89466}" name="Total" dataDxfId="63">
       <calculatedColumnFormula>H259/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4811,26 +8418,26 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{41AC30D5-8772-4AF4-9D32-20523AA011EF}" name="Table15620404144" displayName="Table15620404144" ref="B266:H268" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{481883B8-A3B6-4CE8-8BA0-991C49925102}" name="Table1562040414484" displayName="Table1562040414484" ref="B266:H268" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B266:H268" xr:uid="{41AC30D5-8772-4AF4-9D32-20523AA011EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A7FCD1E-1D8D-448E-AF47-0C94B8FEA9C2}" name="Answers" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7631C9E7-FAE5-4DA5-908D-C266EC47F98C}" name="No Engagement" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{462C7BE7-6250-4E7E-9ADF-B54C2FD3A19B}" name="Answers" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{32A1546C-958B-4B42-A37A-BADB26F0B537}" name="No Engagement" dataDxfId="59">
       <calculatedColumnFormula>C266/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{94E01192-9334-4275-9D5D-A53C03C1A535}" name="Low Engagement" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{6074BE61-9E7A-4306-B690-CF6F72CEE1D6}" name="Low Engagement" dataDxfId="58">
       <calculatedColumnFormula>D266/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16C5BF63-C706-4694-9327-38C9BA163D61}" name="Neutral" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{C7B7BA70-2879-4555-AADD-DA5451C635E2}" name="Neutral" dataDxfId="57">
       <calculatedColumnFormula>E266/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40FB28FB-C70C-4A03-B497-00EE75D79656}" name="Moderately Engaged" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{D272CB62-4D73-49F7-9CAD-25129AA2C7D2}" name="Moderately Engaged" dataDxfId="56">
       <calculatedColumnFormula>F266/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AA180F6C-A107-41E2-8794-B064DCBBF59F}" name="Highly Engaged" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{C535FEDC-B793-4C2A-B5A6-610E27A5274B}" name="Highly Engaged" dataDxfId="55">
       <calculatedColumnFormula>G266/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{27FAE2AD-2229-4C3F-9DF4-3E334A72F224}" name="Total" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{5B6338E1-AEA6-4E30-8D36-9BE045828188}" name="Total" dataDxfId="54">
       <calculatedColumnFormula>H266/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4839,7 +8446,7 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9E2EDD6D-C10C-44A2-A812-103F51384BEF}" name="Table15620404145" displayName="Table15620404145" ref="B273:H275" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{D9A9DAC6-77A2-4A03-9F58-187F282E507C}" name="Table1562040414585" displayName="Table1562040414585" ref="B273:H275" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B273:H275" xr:uid="{9E2EDD6D-C10C-44A2-A812-103F51384BEF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4850,23 +8457,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5A299CD1-95AC-4124-833F-D4FC4E4633DE}" name="Answers" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{C3168118-A1E1-4779-9809-8BFAD12C11BD}" name="No Engagement" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{2C0EB06A-C032-48C9-89D6-E8B849DF54BD}" name="Answers" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{35E37F12-E5F6-412D-99A6-0EBAF0758500}" name="No Engagement" dataDxfId="50">
       <calculatedColumnFormula>C273/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9EF30B07-E2E4-4BF3-8897-080B344AD68B}" name="Low Engagement" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{909327A0-7543-49FE-8AD3-39B2DC551198}" name="Low Engagement" dataDxfId="49">
       <calculatedColumnFormula>D273/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7142C97C-F58B-456E-84A7-71AFC44311D6}" name="Neutral" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{C5F567AD-892E-427E-BA64-A1835D6F53A1}" name="Neutral" dataDxfId="48">
       <calculatedColumnFormula>E273/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{50E16229-FE38-4F41-AF47-AEBF0FECDC6A}" name="Moderately Engaged" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{22F0BAF5-72C0-4938-8F5D-BC0766186972}" name="Moderately Engaged" dataDxfId="47">
       <calculatedColumnFormula>F273/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27F3F4A4-1AFC-4030-AF61-28F25CBEB1BE}" name="Highly Engaged" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{380E5F5B-9FC4-4DBC-B62E-A2CE7EEAB70A}" name="Highly Engaged" dataDxfId="46">
       <calculatedColumnFormula>G273/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54C60E0D-6D21-4EAE-BE02-D23A15DBDC50}" name="Total" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{7ACB260E-9413-4B5F-A23F-118C4E5EB5E2}" name="Total" dataDxfId="45">
       <calculatedColumnFormula>H273/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4875,26 +8482,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{28BF696A-1B6D-4259-B435-AEF73E1941C6}" name="Table157" displayName="Table157" ref="B26:H28" totalsRowShown="0" headerRowDxfId="359" dataDxfId="358">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{DB856072-A6E6-4569-A2EF-035A82416B05}" name="Table15750" displayName="Table15750" ref="B26:H28" totalsRowShown="0" headerRowDxfId="368" dataDxfId="367">
   <autoFilter ref="B26:H28" xr:uid="{28BF696A-1B6D-4259-B435-AEF73E1941C6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{01D96E7C-9AF3-4F74-BE76-D824F7C9512C}" name="Answers" dataDxfId="357"/>
-    <tableColumn id="2" xr3:uid="{54F3D240-9CCE-470E-B6B7-2FA961F776B6}" name="No Engagement" dataDxfId="356">
+    <tableColumn id="1" xr3:uid="{CE05C50E-11FF-4E74-AB10-E80ED5F7AEB9}" name="Answers" dataDxfId="366"/>
+    <tableColumn id="2" xr3:uid="{DB726FFE-A6CD-4F2E-A745-59D4F4EA0A5A}" name="No Engagement" dataDxfId="365">
       <calculatedColumnFormula>C26/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{36B68578-5BC8-42A8-AC7E-CB0CC91F1F8A}" name="Low Engagement" dataDxfId="355">
+    <tableColumn id="3" xr3:uid="{717E141B-74E4-48AD-83E6-F9306AFD149F}" name="Low Engagement" dataDxfId="364">
       <calculatedColumnFormula>D26/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F00889AA-17A3-484C-B347-A714F8952A8C}" name="Neutral" dataDxfId="354">
+    <tableColumn id="4" xr3:uid="{99ED97AB-F5FC-4CE2-9181-CD35E445D0F3}" name="Neutral" dataDxfId="363">
       <calculatedColumnFormula>E26/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5EB4B3BB-FEE3-4898-9745-9508141F3637}" name="Moderately Engaged" dataDxfId="353">
+    <tableColumn id="5" xr3:uid="{CF1370A7-1FF8-474D-9800-866FE076EE44}" name="Moderately Engaged" dataDxfId="362">
       <calculatedColumnFormula>F26/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C196AB78-9024-431E-862B-3EB4A84AA499}" name="Highly Engaged" dataDxfId="352">
+    <tableColumn id="6" xr3:uid="{E44E313D-58F9-40D6-B412-2D107F3DFB6D}" name="Highly Engaged" dataDxfId="361">
       <calculatedColumnFormula>G26/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{42290E3E-915E-4BA9-A7BE-6D7E8F9E25DF}" name="Total" dataDxfId="351">
+    <tableColumn id="7" xr3:uid="{61FBDC79-7849-4226-8965-61D44EACB7F0}" name="Total" dataDxfId="360">
       <calculatedColumnFormula>H26/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4903,7 +8510,7 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{987F31B2-3A2C-4F93-8B91-9033141398E1}" name="Table15620404147" displayName="Table15620404147" ref="B280:H282" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="85" xr:uid="{CA88E2FD-FA11-4727-8AA2-9F4BC0C9950A}" name="Table1562040414786" displayName="Table1562040414786" ref="B280:H282" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B280:H282" xr:uid="{987F31B2-3A2C-4F93-8B91-9033141398E1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4914,23 +8521,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D9B95241-8EAA-482D-AC2D-ADFB32324BA5}" name="Answers" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{6B1A1753-3CD6-468B-B50E-FEA40D28B39F}" name="No Engagement" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{5DF6B12E-DB68-401D-AACA-DF41EEA8771E}" name="Answers" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{D7CF0EA2-93E0-4458-B471-6781A364BBB5}" name="No Engagement" dataDxfId="41">
       <calculatedColumnFormula>C280/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4D615B60-18EB-4DFC-A013-001AC60B9D3D}" name="Low Engagement" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{6BA96E2E-AEF8-4B54-982A-DDD983581666}" name="Low Engagement" dataDxfId="40">
       <calculatedColumnFormula>D280/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B9EA744B-0AFA-49C5-BE65-8D46FC67A5DE}" name="Neutral" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{B6498177-1CBD-4E8C-B3C7-85A356F3FB35}" name="Neutral" dataDxfId="39">
       <calculatedColumnFormula>E280/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9FBCEA87-02C8-44A8-918B-935A360115C2}" name="Moderately Engaged" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{9ADB81E8-769C-43BF-86C0-7B1A85973EA7}" name="Moderately Engaged" dataDxfId="38">
       <calculatedColumnFormula>F280/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BFF66F26-B6A0-46B9-8ACE-D0ADF57A9050}" name="Highly Engaged" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{CF54353E-8227-416A-8759-299D5B342BAB}" name="Highly Engaged" dataDxfId="37">
       <calculatedColumnFormula>G280/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1CD2F195-2650-461A-A78E-2465F1E82925}" name="Total" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{7916EA71-96AC-4E49-87CF-6AD9BD1DF7CC}" name="Total" dataDxfId="36">
       <calculatedColumnFormula>H280/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4939,7 +8546,7 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{D35ACF68-22B0-4383-8358-D7149C84DB85}" name="Table15620404148" displayName="Table15620404148" ref="B287:H289" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="86" xr:uid="{D11E41B0-3F48-4529-9D6B-889D125BF4E9}" name="Table1562040414887" displayName="Table1562040414887" ref="B287:H289" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B287:H289" xr:uid="{D35ACF68-22B0-4383-8358-D7149C84DB85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4950,23 +8557,23 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AEB6922E-510D-4F00-9CEF-FA37148843BC}" name="Answers" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{AB22592C-0DB5-468E-BBDD-0169079421D8}" name="No Engagement" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{5BA5F9F8-D2C0-4D58-9EC7-8EC406EB82C3}" name="Answers" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{F7AC0EF0-D481-4437-B911-C53D06B2E8A2}" name="No Engagement" dataDxfId="32">
       <calculatedColumnFormula>C287/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3131FE9E-D43D-43CA-B649-094E55318A55}" name="Low Engagement" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{0B287F2A-846D-45CA-99B0-D4EC98F2AE1A}" name="Low Engagement" dataDxfId="31">
       <calculatedColumnFormula>D287/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F0FB6B8-AE41-4A3A-9F0C-CC720423AC12}" name="Neutral" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{023E3193-6034-4158-818D-51D0C74F7A87}" name="Neutral" dataDxfId="30">
       <calculatedColumnFormula>E287/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3DAFADE3-9CC6-4C27-BA1C-C5F0BB31210C}" name="Moderately Engaged" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{6FF93579-4402-4F74-B1CD-06879834E820}" name="Moderately Engaged" dataDxfId="29">
       <calculatedColumnFormula>F287/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD83BB64-C8AA-4860-B070-D33FB1AE1EE4}" name="Highly Engaged" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{E610ACF9-AC12-4812-88AF-CAD760B2598E}" name="Highly Engaged" dataDxfId="28">
       <calculatedColumnFormula>G287/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{086715EE-2F11-47D5-884A-EAEEA1269EA6}" name="Total" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{41EC9C92-A61A-4F85-8501-6EB6F03AB7AB}" name="Total" dataDxfId="27">
       <calculatedColumnFormula>H287/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4975,8 +8582,8 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C13BE26F-6139-47A6-898C-24E0851B6C3B}" name="Table13" displayName="Table13" ref="B5:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B5:H7" xr:uid="{C13BE26F-6139-47A6-898C-24E0851B6C3B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="87" xr:uid="{B4C3C24D-B8B9-4B6B-B04A-5134DE150572}" name="Table188" displayName="Table188" ref="B5:H7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B5:H7" xr:uid="{B4C3C24D-B8B9-4B6B-B04A-5134DE150572}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4986,79 +8593,115 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7A8DA2D0-EFFE-42E7-BB4A-C60E7748383A}" name="Answers" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CDC9E4E9-C426-4E0C-9B21-9C0D03CE0391}" name="No Engagement" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{65DAEC5F-625A-4037-B821-2ED92F620CCD}" name="Answers" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{EA43EF93-528B-4137-8CEA-71EB609A5C3D}" name="No Engagement" dataDxfId="25">
       <calculatedColumnFormula>C5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78F1A8C5-0F11-4FEF-B5AB-76D11C151DF8}" name="Low Engagement" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{E9237F3B-2B14-4D5F-9B19-C625E619A522}" name="Low Engagement" dataDxfId="24">
       <calculatedColumnFormula>D5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{72309216-5253-443C-8263-9F554E845D25}" name="Neutral" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{DC785B25-55B9-4EBE-92E3-2DE872E28C33}" name="Neutral" dataDxfId="23">
       <calculatedColumnFormula>E5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{833F40E5-54DA-4C38-84D4-F82194516984}" name="Moderately Engaged" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{DFF03F80-F1CB-40AB-ADAD-0A95A83F5B79}" name="Moderately Engaged" dataDxfId="22">
       <calculatedColumnFormula>F5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9E52BF40-9DED-4C9C-A5A7-962F66C38E9C}" name="Highly Engaged" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{208A296A-CFC2-430E-9D2F-FA8C8DA94BDC}" name="Highly Engaged" dataDxfId="21">
       <calculatedColumnFormula>G5/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EF2AF768-9E55-4030-9BE7-6DB80FCDA97E}" name="Total" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{F2799DAD-57B6-4ADE-9F6D-C8D61C10ED35}" name="Total" dataDxfId="20">
       <calculatedColumnFormula>H5/$H$6</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="89" xr:uid="{4B5EBCDB-003B-49AD-AA64-BAF41D699060}" name="Table15690" displayName="Table15690" ref="B35:H37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B35:H37" xr:uid="{4B5EBCDB-003B-49AD-AA64-BAF41D699060}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{92AF2899-64A7-4384-801C-05DBFE2D0B7F}" name="Answers" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{55134942-B55C-4174-939B-6F6A809FA02E}" name="No Engagement" dataDxfId="16">
+      <calculatedColumnFormula>C35/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{80D8BFDC-5172-425E-AC4F-76E3B537D4BA}" name="Low Engagement" dataDxfId="15">
+      <calculatedColumnFormula>D35/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EBBE5DB9-B146-48A3-8C8C-E8FC6C2C1B19}" name="Neutral" dataDxfId="14">
+      <calculatedColumnFormula>E35/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CA18EBB7-CED0-4125-8941-66B632727981}" name="Moderately Engaged" dataDxfId="13">
+      <calculatedColumnFormula>F35/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F488717E-7A8E-4DAA-BDB3-9FC67A2AC93F}" name="Highly Engaged" dataDxfId="12">
+      <calculatedColumnFormula>G35/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C73A53D5-A467-4BC9-B417-4E8190C1C0FB}" name="Total" dataDxfId="11">
+      <calculatedColumnFormula>H35/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{31E961B4-CAFB-4B6E-94E7-47FC3F439630}" name="Table1321" displayName="Table1321" ref="B17:H19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B17:H19" xr:uid="{31E961B4-CAFB-4B6E-94E7-47FC3F439630}"/>
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="91" xr:uid="{48372F1A-3498-4F4C-B441-0DDF86798A81}" name="Table18892" displayName="Table18892" ref="B20:H22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B20:H22" xr:uid="{48372F1A-3498-4F4C-B441-0DDF86798A81}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{12B97C6B-D7DE-4C9A-B769-48FDA3F2296E}" name="Answers" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CBF6FD42-3722-445B-B693-2E8E9E35FE0C}" name="No Engagement" dataDxfId="14">
-      <calculatedColumnFormula>C17/$H$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{D643F37C-EE72-4E63-A910-B91686EA4F4E}" name="Low Engagement" dataDxfId="13">
-      <calculatedColumnFormula>D17/$H$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{BEF190C6-80CE-478B-950D-5BB14FD12179}" name="Neutral" dataDxfId="12">
-      <calculatedColumnFormula>E17/$H$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{69E412E8-A69A-4E47-946B-5FA3DAFD598D}" name="Moderately Engaged" dataDxfId="11">
-      <calculatedColumnFormula>F17/$H$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9925AF7-6DC1-424F-9DFA-BFECC7E2C68C}" name="Highly Engaged" dataDxfId="10">
-      <calculatedColumnFormula>G17/$H$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{F3A139D4-486A-43D2-B397-8703FCA6F649}" name="Total" dataDxfId="9">
-      <calculatedColumnFormula>H17/$H$6</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9743771E-5668-45DF-9FCE-B68C2AACB195}" name="Answers" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2DACD6B2-36AA-4DCD-9750-AD53FD28E7C3}" name="No Engagement" dataDxfId="5">
+      <calculatedColumnFormula>C20/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8247A946-D0CA-4E56-847A-2B35EBBB0087}" name="Low Engagement" dataDxfId="4">
+      <calculatedColumnFormula>D20/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8F669E5A-9723-41AD-8006-6D29102C4579}" name="Neutral" dataDxfId="3">
+      <calculatedColumnFormula>E20/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5FF337ED-1DAC-4874-8F4B-715290232928}" name="Moderately Engaged" dataDxfId="2">
+      <calculatedColumnFormula>F20/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9F70D8DE-9DBD-4F8C-9209-1A8E5E6F6C8C}" name="Highly Engaged" dataDxfId="1">
+      <calculatedColumnFormula>G20/$H$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0247B70C-9DAB-47B5-9EC4-FB7A2DCE90C1}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>H20/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{22107FF2-777F-40D4-80AA-3DDC1A2FEB6E}" name="Table1568" displayName="Table1568" ref="B33:H35" totalsRowShown="0" headerRowDxfId="350" dataDxfId="349">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{DC6A402A-8E00-4B57-8C93-6C0C48A67625}" name="Table156851" displayName="Table156851" ref="B33:H35" totalsRowShown="0" headerRowDxfId="359" dataDxfId="358">
   <autoFilter ref="B33:H35" xr:uid="{22107FF2-777F-40D4-80AA-3DDC1A2FEB6E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00B8EC6B-574B-49F9-AD7D-2DCB94F87B1C}" name="Answers" dataDxfId="348"/>
-    <tableColumn id="2" xr3:uid="{EBDE0ABD-A605-4BA0-B7AC-5E55E059DB39}" name="No Engagement" dataDxfId="347">
+    <tableColumn id="1" xr3:uid="{FC10ABBE-645C-4933-ABF2-3A03C5FF4CCB}" name="Answers" dataDxfId="357"/>
+    <tableColumn id="2" xr3:uid="{1036AE91-76E6-4756-8EC6-595632D18FEB}" name="No Engagement" dataDxfId="356">
       <calculatedColumnFormula>C33/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{20C4FFC9-AD4F-4567-A54D-A3E3C8242B65}" name="Low Engagement" dataDxfId="346">
+    <tableColumn id="3" xr3:uid="{151D71CB-1337-464B-85CB-9FCB63DB132A}" name="Low Engagement" dataDxfId="355">
       <calculatedColumnFormula>D33/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C5B0DCA3-54A8-4175-B222-6201B5BEB2BE}" name="Neutral" dataDxfId="345">
+    <tableColumn id="4" xr3:uid="{A7E12548-38CA-455F-AE23-492AFD604B9B}" name="Neutral" dataDxfId="354">
       <calculatedColumnFormula>E33/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C261DB51-0C32-4F78-91DD-1B5B9AD8D166}" name="Moderately Engaged" dataDxfId="344">
+    <tableColumn id="5" xr3:uid="{C808E169-3D87-4850-9FBD-23E621668DD0}" name="Moderately Engaged" dataDxfId="353">
       <calculatedColumnFormula>F33/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1864F67-F96E-438C-9712-69388E0FC836}" name="Highly Engaged" dataDxfId="343">
+    <tableColumn id="6" xr3:uid="{A1717B05-3FA5-406F-B766-A85975B5A43C}" name="Highly Engaged" dataDxfId="352">
       <calculatedColumnFormula>G33/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C33BF6D8-AC0E-4D1F-BBA6-2FDE5E8340C6}" name="Total" dataDxfId="342">
+    <tableColumn id="7" xr3:uid="{77959EDD-66DC-4676-B40D-4EDABBCCA641}" name="Total" dataDxfId="351">
       <calculatedColumnFormula>H33/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5067,26 +8710,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23C61FAF-92D0-47E4-B8D4-3A357DC2D6F8}" name="Table159" displayName="Table159" ref="B40:H42" totalsRowShown="0" headerRowDxfId="341" dataDxfId="340">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{19E09641-6F48-45C6-BCA2-55AC7519D8E1}" name="Table15952" displayName="Table15952" ref="B40:H42" totalsRowShown="0" headerRowDxfId="350" dataDxfId="349">
   <autoFilter ref="B40:H42" xr:uid="{23C61FAF-92D0-47E4-B8D4-3A357DC2D6F8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52FAB46F-7068-4417-9390-EDFE4078BE85}" name="Answers" dataDxfId="339"/>
-    <tableColumn id="2" xr3:uid="{8954E47F-1970-40C4-BE78-3D90BD7DA74F}" name="No Engagement" dataDxfId="338">
+    <tableColumn id="1" xr3:uid="{BE8C1568-BAFD-48C8-AE08-B3CDC090086D}" name="Answers" dataDxfId="348"/>
+    <tableColumn id="2" xr3:uid="{0825DCB4-48C2-430C-B88D-7EC44E155D9F}" name="No Engagement" dataDxfId="347">
       <calculatedColumnFormula>C40/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{47A170F6-A9AA-4924-AEA7-BC0DBCD4A2EA}" name="Low Engagement" dataDxfId="337">
+    <tableColumn id="3" xr3:uid="{EED18B3B-DB11-42C3-ADB4-20404A217305}" name="Low Engagement" dataDxfId="346">
       <calculatedColumnFormula>D40/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{23043514-918C-4077-98F7-7837AE48E0C3}" name="Neutral" dataDxfId="336">
+    <tableColumn id="4" xr3:uid="{6987379C-29F7-44D5-92C3-6A40DA04AB94}" name="Neutral" dataDxfId="345">
       <calculatedColumnFormula>E40/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C21E781F-952A-4264-B38F-BAB5C65C8E40}" name="Moderately Engaged" dataDxfId="335">
+    <tableColumn id="5" xr3:uid="{1EC0C531-5208-48D9-A80A-AA4BFCFC29BE}" name="Moderately Engaged" dataDxfId="344">
       <calculatedColumnFormula>F40/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{32C20DAF-F344-46B0-8FE9-59C0FA6B961C}" name="Highly Engaged" dataDxfId="334">
+    <tableColumn id="6" xr3:uid="{80C4CCE3-51AA-4BE9-B98C-63F3270B1A5C}" name="Highly Engaged" dataDxfId="343">
       <calculatedColumnFormula>G40/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8F744D66-D3EF-4773-BBC3-0D72B23F497C}" name="Total" dataDxfId="333">
+    <tableColumn id="7" xr3:uid="{73244589-78C4-40C2-A1A6-4E1D4E6B2123}" name="Total" dataDxfId="342">
       <calculatedColumnFormula>H40/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5095,26 +8738,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3F8D5356-A2A5-40D7-B05D-AC37DF02BEDD}" name="Table15610" displayName="Table15610" ref="B47:H49" totalsRowShown="0" headerRowDxfId="332" dataDxfId="331">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{4A876BBA-FD07-4771-932F-72BA0EE8810B}" name="Table1561053" displayName="Table1561053" ref="B47:H49" totalsRowShown="0" headerRowDxfId="341" dataDxfId="340">
   <autoFilter ref="B47:H49" xr:uid="{3F8D5356-A2A5-40D7-B05D-AC37DF02BEDD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2372B9DF-1FDE-454E-86CC-C6D0CF87ADDE}" name="Answers" dataDxfId="330"/>
-    <tableColumn id="2" xr3:uid="{E5948D69-7DE0-4642-8C73-7568938D3B84}" name="No Engagement" dataDxfId="329">
+    <tableColumn id="1" xr3:uid="{446DD26E-F3AC-4D91-B14A-B41B5C8B6ACB}" name="Answers" dataDxfId="339"/>
+    <tableColumn id="2" xr3:uid="{FF863A1F-A76A-4CF1-B24D-FD9329E620A0}" name="No Engagement" dataDxfId="338">
       <calculatedColumnFormula>C47/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E0EB44C-F3A4-4687-A84E-F42677B88A27}" name="Low Engagement" dataDxfId="328">
+    <tableColumn id="3" xr3:uid="{550E1E8B-AE22-4F8D-9A55-800F119C8C24}" name="Low Engagement" dataDxfId="337">
       <calculatedColumnFormula>D47/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02CFE710-FB4E-4D89-BB8A-08AE61F6F574}" name="Neutral" dataDxfId="327">
+    <tableColumn id="4" xr3:uid="{54550B06-C1EF-43E6-960A-0F3DC829D1F7}" name="Neutral" dataDxfId="336">
       <calculatedColumnFormula>E47/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FDC8C076-5DDC-4624-99C0-81DAB8BA1C3E}" name="Moderately Engaged" dataDxfId="326">
+    <tableColumn id="5" xr3:uid="{B7A261CD-1F81-4384-945F-43020B2D86FA}" name="Moderately Engaged" dataDxfId="335">
       <calculatedColumnFormula>F47/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2CEC4FF-4C8E-46AD-AEE0-18812A2463E2}" name="Highly Engaged" dataDxfId="325">
+    <tableColumn id="6" xr3:uid="{989F1A40-E72A-4E23-AAE4-7229AEFB630E}" name="Highly Engaged" dataDxfId="334">
       <calculatedColumnFormula>G47/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3595F63B-CE26-44C7-9498-E0A46A47BD7A}" name="Total" dataDxfId="324">
+    <tableColumn id="7" xr3:uid="{67579B62-4740-455E-84A5-E28B8D9BE5BC}" name="Total" dataDxfId="333">
       <calculatedColumnFormula>H47/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5123,26 +8766,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32F28D4C-2EA8-4416-B70E-3244DB0AFC10}" name="Table1511" displayName="Table1511" ref="B54:H56" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{347DA199-FC14-413C-B9CD-DB8BA6F3B88C}" name="Table151154" displayName="Table151154" ref="B54:H56" totalsRowShown="0" headerRowDxfId="332" dataDxfId="331">
   <autoFilter ref="B54:H56" xr:uid="{32F28D4C-2EA8-4416-B70E-3244DB0AFC10}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C4ABEB94-46A5-4A71-8F6F-32B5BE13FD3F}" name="Answers" dataDxfId="321"/>
-    <tableColumn id="2" xr3:uid="{39726730-CFD3-4170-B4DB-1CBF9F0B8986}" name="No Engagement" dataDxfId="320">
+    <tableColumn id="1" xr3:uid="{105DEEB4-E63E-4A5E-88AB-17E18F01297F}" name="Answers" dataDxfId="330"/>
+    <tableColumn id="2" xr3:uid="{4B772553-8E8D-45D9-900B-E01350830518}" name="No Engagement" dataDxfId="329">
       <calculatedColumnFormula>C54/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61583F99-CA56-4382-AE91-4086B140CDDA}" name="Low Engagement" dataDxfId="319">
+    <tableColumn id="3" xr3:uid="{5369C516-5D3A-4380-B014-4D08A0D2BFD8}" name="Low Engagement" dataDxfId="328">
       <calculatedColumnFormula>D54/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81F14F0C-315E-46A8-BF5B-1DA037CD4F6D}" name="Neutral" dataDxfId="318">
+    <tableColumn id="4" xr3:uid="{085AC084-1A4E-47B4-9242-CB9F8E1006FE}" name="Neutral" dataDxfId="327">
       <calculatedColumnFormula>E54/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C71DC8B7-977B-49BB-813E-0B54217403F7}" name="Moderately Engaged" dataDxfId="317">
+    <tableColumn id="5" xr3:uid="{A39A2B09-EECA-4577-B637-1959623BBE60}" name="Moderately Engaged" dataDxfId="326">
       <calculatedColumnFormula>F54/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B1A6D902-F299-49F2-B2AD-CDA2C9FF7B9F}" name="Highly Engaged" dataDxfId="316">
+    <tableColumn id="6" xr3:uid="{AC1A5160-293C-439F-97A3-A696BAA8E61E}" name="Highly Engaged" dataDxfId="325">
       <calculatedColumnFormula>G54/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4206ECAB-9824-4016-950E-1B9E8242F049}" name="Total" dataDxfId="315">
+    <tableColumn id="7" xr3:uid="{D13EB226-4F2C-4457-B893-218C2D4A0639}" name="Total" dataDxfId="324">
       <calculatedColumnFormula>H54/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5151,26 +8794,26 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{20F26F3D-139B-4C18-8069-00384BA368D9}" name="Table15612" displayName="Table15612" ref="B61:H63" totalsRowShown="0" headerRowDxfId="314" dataDxfId="313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{1909CDE5-640E-4C9F-B64A-F9A8EC744C0A}" name="Table1561255" displayName="Table1561255" ref="B61:H63" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322">
   <autoFilter ref="B61:H63" xr:uid="{20F26F3D-139B-4C18-8069-00384BA368D9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6981A320-C09E-4A85-84CF-CE3DF7770380}" name="Answers" dataDxfId="312"/>
-    <tableColumn id="2" xr3:uid="{5E4D8D6C-6AAC-4167-89CD-4D130E109E09}" name="No Engagement" dataDxfId="311">
+    <tableColumn id="1" xr3:uid="{1B0EE00F-801B-4740-91B9-2EADB463AE5D}" name="Answers" dataDxfId="321"/>
+    <tableColumn id="2" xr3:uid="{07B0D7B8-E7EE-4F38-A276-2C4C9BF7A414}" name="No Engagement" dataDxfId="320">
       <calculatedColumnFormula>C61/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5DBC62D6-3723-4545-A56E-E87714D374ED}" name="Low Engagement" dataDxfId="310">
+    <tableColumn id="3" xr3:uid="{810EE2A7-F035-4C27-8B3F-0DFD4B9CBC16}" name="Low Engagement" dataDxfId="319">
       <calculatedColumnFormula>D61/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5E0B565A-FA59-4573-96DA-DA4BA862766C}" name="Neutral" dataDxfId="309">
+    <tableColumn id="4" xr3:uid="{4BFAD4B2-D9FD-496C-9206-D1B3457E056A}" name="Neutral" dataDxfId="318">
       <calculatedColumnFormula>E61/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DEEC79AD-587B-4A60-B799-00219D24A704}" name="Moderately Engaged" dataDxfId="308">
+    <tableColumn id="5" xr3:uid="{4EC9D16E-AB21-4FEC-99A3-AAFBDBE25F97}" name="Moderately Engaged" dataDxfId="317">
       <calculatedColumnFormula>F61/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D4FB15BF-6EE8-4CC4-8F5D-50E20759FB09}" name="Highly Engaged" dataDxfId="307">
+    <tableColumn id="6" xr3:uid="{4B6FCEA6-0D8B-4B16-B712-AE3222CAD678}" name="Highly Engaged" dataDxfId="316">
       <calculatedColumnFormula>G61/$H$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91329CDB-658A-4AD4-BF0A-12367102C05B}" name="Total" dataDxfId="306">
+    <tableColumn id="7" xr3:uid="{6D2A5EE2-069F-4A82-B458-67EA803D1282}" name="Total" dataDxfId="315">
       <calculatedColumnFormula>H61/$H$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5494,11 +9137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D774241-4657-4D02-AF01-A4061EE81CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807EB14B-07E4-4C52-B2A5-2E5BD916299D}">
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9984,49 +13627,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B243:H243"/>
+    <mergeCell ref="B250:H250"/>
+    <mergeCell ref="B257:H257"/>
     <mergeCell ref="B264:H264"/>
     <mergeCell ref="B271:H271"/>
     <mergeCell ref="B278:H278"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B236:H236"/>
-    <mergeCell ref="B243:H243"/>
-    <mergeCell ref="B250:H250"/>
-    <mergeCell ref="B257:H257"/>
-    <mergeCell ref="B194:H194"/>
     <mergeCell ref="B201:H201"/>
     <mergeCell ref="B208:H208"/>
     <mergeCell ref="B215:H215"/>
     <mergeCell ref="B222:H222"/>
     <mergeCell ref="B229:H229"/>
+    <mergeCell ref="B236:H236"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B194:H194"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B143:H143"/>
     <mergeCell ref="B150:H150"/>
     <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B73:H73"/>
     <mergeCell ref="B80:H80"/>
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B94:H94"/>
     <mergeCell ref="B101:H101"/>
     <mergeCell ref="B108:H108"/>
     <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B52:H52"/>
     <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B73:H73"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="41">
@@ -10076,341 +13719,648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07122121-E872-4F07-B077-18A9661DDE7C}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D8E70-706D-4EC2-80AA-DCCDBDC2A981}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H32" sqref="B1:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="13.19921875" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="str">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="str">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:C,3,FALSE)</f>
         <v>Q1 How engaged do you feel with your coursework and academic activities?</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="str">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="str">
         <f>"G"&amp;A3</f>
         <v>G1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="17">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:I,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="17">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:I,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="17">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:I,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="17">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:I,8,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="17">
         <f>VLOOKUP(A4,combined_survey_data_for_report!A:I,9,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="17">
         <f>SUM(C6:G6)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="18">
         <f>C6/H6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <f>D6/H6</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <f>E6/H6</f>
         <v>0.15625</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="18">
         <f>F6/H6</f>
         <v>0.21875</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="18">
         <f>G6/H6</f>
         <v>0.59375</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="18">
         <f>H6/H6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="str">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:C,3,FALSE)</f>
+      <c r="B18" s="20" t="str">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:C,3,FALSE)</f>
         <v>Q2 How likely are you to feel that you receive the support you need to succeed in your coursework and academic activities?</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="str">
-        <f>"G"&amp;A15</f>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f>"G"&amp;A18</f>
         <v>G2</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E20" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F20" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G20" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H20" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8" t="s">
+    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="5">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:I,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:I,6,FALSE)</f>
+      <c r="C21" s="17">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:I,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:I,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="5">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:I,7,FALSE)</f>
+      <c r="E21" s="17">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:I,7,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="5">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:I,8,FALSE)</f>
+      <c r="F21" s="17">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:I,8,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="G18" s="5">
-        <f>VLOOKUP(A16,combined_survey_data_for_report!A:I,9,FALSE)</f>
+      <c r="G21" s="17">
+        <f>VLOOKUP(A19,combined_survey_data_for_report!A:I,9,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="H18" s="5">
-        <f>SUM(C18:G18)</f>
+      <c r="H21" s="17">
+        <f>SUM(C21:G21)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+    <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="9">
-        <f>C18/H18</f>
+      <c r="C22" s="18">
+        <f>C21/H21</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D19" s="9">
-        <f>D18/H18</f>
+      <c r="D22" s="18">
+        <f>D21/H21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="9">
-        <f>E18/H18</f>
+      <c r="E22" s="18">
+        <f>E21/H21</f>
         <v>0.125</v>
       </c>
-      <c r="F19" s="9">
-        <f>F18/H18</f>
+      <c r="F22" s="18">
+        <f>F21/H21</f>
         <v>0.40625</v>
       </c>
-      <c r="G19" s="9">
-        <f>G18/H18</f>
+      <c r="G22" s="18">
+        <f>G21/H21</f>
         <v>0.4375</v>
       </c>
-      <c r="H19" s="9">
-        <f>H18/H18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="H22" s="18">
+        <f>H21/H21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <f>A18+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:C,3,FALSE)</f>
+        <v>Q3 How likely are you to feel supported by your faculty and peers in the program?</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="str">
+        <f>"G"&amp;A33</f>
+        <v>G3</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="17">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:I,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="17">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:I,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:I,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F36" s="17">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:I,8,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="G36" s="17">
+        <f>VLOOKUP(A34,combined_survey_data_for_report!A:I,9,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H36" s="17">
+        <f>SUM(C36:G36)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C36/H36</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D37" s="18">
+        <f>D36/H36</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <f>E36/H36</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <f>F36/H36</f>
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="18">
+        <f>G36/H36</f>
+        <v>0.625</v>
+      </c>
+      <c r="H37" s="18">
+        <f>H36/H36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10419,8 +14369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EBDF50-D9BA-4B25-91FA-AD6423072F4C}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
